--- a/documents/EHI_electronic_metadata_v3.xlsx
+++ b/documents/EHI_electronic_metadata_v3.xlsx
@@ -1,16 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anttonalberdi/github/earthhologenome.github.io/documents/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5703D2E-C84F-7B4B-8180-41DBA811FEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="7240" yWindow="500" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Introduction" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Metadata A (Sampling)" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Metadata B1 (Animals)" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Metadata B2 (Samples)" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Dropdown options" sheetId="5" r:id="rId8"/>
+    <sheet name="Introduction" sheetId="1" r:id="rId1"/>
+    <sheet name="Metadata A (Sampling)" sheetId="2" r:id="rId2"/>
+    <sheet name="Metadata B1 (Animals)" sheetId="3" r:id="rId3"/>
+    <sheet name="Metadata B2 (Samples)" sheetId="4" r:id="rId4"/>
+    <sheet name="Dropdown options" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mgxHlvI91gOICfnlKn4PFi3sVdCPQ=="/>
@@ -20,93 +29,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="193">
+  <si>
+    <t>The electronic metadata document is split in three interrelated tabs with a hierarchical structure</t>
+  </si>
+  <si>
+    <t>Fill the document out in the following order: Metadata A, Metadata B1 and Metadata B2.</t>
+  </si>
+  <si>
+    <t>Metadata A (Sampling)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metadata related to the sampling event. </t>
+  </si>
+  <si>
+    <t>One row per sampling site and day.</t>
+  </si>
+  <si>
+    <t>Each sampling event (row) can have multiple child elements (animals) in B1.</t>
+  </si>
+  <si>
+    <t>Metadata B1 (Animals)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metadata related to the sampled animal. </t>
+  </si>
+  <si>
+    <t>One row per sampled animal.</t>
+  </si>
+  <si>
+    <t>Each animal (row) can have multiple child elements (samples) in B2.</t>
+  </si>
+  <si>
+    <t>Metadata B2 (Samples)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metadata related to the biological sample. </t>
+  </si>
+  <si>
+    <t>One row per sample.</t>
+  </si>
+  <si>
+    <t>If you have any doubts or suggestions to modify the document, do not hesitate to contact us in ehi@sund.ku.dk</t>
+  </si>
+  <si>
+    <t>Sampling Metadata (A)</t>
+  </si>
+  <si>
+    <t>One row per sampling event (sampling events in the same locations in different moments should be entered in different fields)</t>
+  </si>
+  <si>
+    <t>The sampling event ID needs to be defined by the field researcher, and use it in the Metadata B tabs to link sampled animals to the sampling events.</t>
+  </si>
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="24.0"/>
-      </rPr>
-      <t xml:space="preserve">Electronic metadata document </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="24.0"/>
-      </rPr>
-      <t>v1</t>
-    </r>
-  </si>
-  <si>
-    <t>The electronic metadata document is split in three interrelated tabs with a hierarchical structure</t>
-  </si>
-  <si>
-    <t>Fill the document out in the following order: Metadata A, Metadata B1 and Metadata B2.</t>
-  </si>
-  <si>
-    <t>Metadata A (Sampling)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metadata related to the sampling event. </t>
-  </si>
-  <si>
-    <t>One row per sampling site and day.</t>
-  </si>
-  <si>
-    <t>Each sampling event (row) can have multiple child elements (animals) in B1.</t>
-  </si>
-  <si>
-    <t>Metadata B1 (Animals)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metadata related to the sampled animal. </t>
-  </si>
-  <si>
-    <t>One row per sampled animal.</t>
-  </si>
-  <si>
-    <t>Each animal (row) can have multiple child elements (samples) in B2.</t>
-  </si>
-  <si>
-    <t>Metadata B2 (Samples)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metadata related to the biological sample. </t>
-  </si>
-  <si>
-    <t>One row per sample.</t>
-  </si>
-  <si>
-    <t>If you have any doubts or suggestions to modify the document, do not hesitate to contact us in ehi@sund.ku.dk</t>
-  </si>
-  <si>
-    <t>Sampling Metadata (A)</t>
-  </si>
-  <si>
-    <t>One row per sampling event (sampling events in the same locations in different moments should be entered in different fields)</t>
-  </si>
-  <si>
-    <t>The sampling event ID needs to be defined by the field researcher, and use it in the Metadata B tabs to link sampled animals to the sampling events.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">For further explanations visit </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t>www.earthhologenome.org/metadata.html</t>
     </r>
@@ -114,18 +105,20 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t>For detailed descriptions or biome ontology:</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> http://www.earthhologenome.org/biome_ontology.html</t>
     </r>
@@ -133,18 +126,20 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">In case of doubts do not hesitate to contact us in </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t>ehi@sund.ku.dk</t>
     </r>
@@ -164,19 +159,20 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Date </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t>(YYYY/MM/DD)</t>
     </r>
@@ -184,19 +180,20 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Latitude </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t>(decimal degrees, YY.YYYYY)</t>
     </r>
@@ -204,19 +201,20 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Longitude </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t>(decimal degrees, XX.XXXXX)</t>
     </r>
@@ -224,19 +222,20 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Biome ontology </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t>(select the best-suited one. Do not select headers, only coded descriptors)</t>
     </r>
@@ -244,19 +243,20 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Environmental features </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t>(detailed descriptive words: beach, harbour)</t>
     </r>
@@ -264,19 +264,20 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Weather at sampling </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t>(select best descriptor)</t>
     </r>
@@ -326,18 +327,20 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">For further explanations visit </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t>www.earthhologenome.org/metadata.html</t>
     </r>
@@ -345,18 +348,20 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">In case of doubts do not hesitate to contact us in </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t>ehi@sund.ku.dk</t>
     </r>
@@ -364,18 +369,20 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t>Animal specimen ID</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (defined by the field researcher, need to match the code used in tab B2)</t>
     </r>
@@ -404,19 +411,20 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Sex </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t>(Male/ Female/ Unknown)</t>
     </r>
@@ -424,19 +432,20 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Development and reproductive status </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t>(Larvae/Juvenile/Adult/Pregnant/Nursing/Sub-adult)</t>
     </r>
@@ -477,18 +486,20 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">For further explanations visit </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t>www.earthhologenome.org/metadata.html</t>
     </r>
@@ -496,18 +507,20 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">In case of doubts do not hesitate to contact us in </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t>ehi@sund.ku.dk</t>
     </r>
@@ -518,18 +531,20 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t>Animal specimen ID</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (defined by the field researcher, need to match the code used in tab B1)</t>
     </r>
@@ -537,17 +552,18 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial, sans-serif"/>
-        <b/>
-        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve">Sampling event ID </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial, sans-serif"/>
-        <b val="0"/>
-        <color rgb="FF000000"/>
       </rPr>
       <t>(defined by the field researcher, need to match the code used in tab A)</t>
     </r>
@@ -555,19 +571,20 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t>Sample type</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (Faecal, Anal/Cloacal swab, Oral swab, Skin swab, Blood, Tissue)</t>
     </r>
@@ -575,19 +592,20 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t>Sample origin</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (Directly from animal, picked up from the ground, from the trap, from the housing bag/box)</t>
     </r>
@@ -595,19 +613,20 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Freshness </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t>(estimated time  between the sample was produced and stored in the preservative.</t>
     </r>
@@ -615,19 +634,20 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Time to freezing </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t>(days between sample was collected and frozen at - 20 ºC)</t>
     </r>
@@ -970,97 +990,153 @@
   </si>
   <si>
     <t>1000048 - Ocean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Once ready, send us this document through the information submission form: </t>
+  </si>
+  <si>
+    <t>http://www.earthhologenome.org/infosubmission.html</t>
+  </si>
+  <si>
+    <t>Electronic metadata document</t>
+  </si>
+  <si>
+    <t>v3, September 2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="18">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="24.0"/>
+      <sz val="24"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF595959"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF1A5429"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF666666"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial, sans-serif"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial, sans-serif"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1068,84 +1144,97 @@
         <bgColor theme="0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
-    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="27">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="20" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="20" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="20" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="20" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1153,19 +1242,29 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2314575" cy="828675"/>
+    <xdr:ext cx="2654300" cy="828675"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="2" name="image1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="247650"/>
+          <a:ext cx="2654300" cy="828675"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -1177,24 +1276,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1384,31 +1467,35 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="25.25"/>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1417,7 +1504,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="D3" s="1"/>
@@ -1425,27 +1512,29 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" ht="24.75" customHeight="1">
+    <row r="4" spans="1:7" ht="24.75" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>192</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1454,7 +1543,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1463,7 +1552,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1472,9 +1561,9 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1483,9 +1572,9 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1494,7 +1583,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1503,12 +1592,12 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>4</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1516,10 +1605,10 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -1527,10 +1616,10 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -1538,7 +1627,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1547,12 +1636,12 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1560,10 +1649,10 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1571,10 +1660,10 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1582,7 +1671,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1591,12 +1680,12 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="A20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1604,10 +1693,10 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1615,7 +1704,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1624,9 +1713,9 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1635,8 +1724,10 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="1"/>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A24" s="6" t="s">
+        <v>189</v>
+      </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1644,14 +1735,24 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A25" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -2622,115 +2723,115 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="Metadata A (Sampling)" location="Metadata A (Sampling)!A1" ref="A12"/>
-    <hyperlink display="Metadata B1 (Animals)" location="Metadata B1 (Animals)!A1" ref="A16"/>
-    <hyperlink display="Metadata B2 (Samples)" location="Metadata B2 (Samples)!A1" ref="A20"/>
+    <hyperlink ref="A12" location="Metadata A (Sampling)!A1" display="Metadata A (Sampling)" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A16" location="Metadata B1 (Animals)!A1" display="Metadata B1 (Animals)" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A20" location="Metadata B2 (Samples)!A1" display="Metadata B2 (Samples)" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A25" r:id="rId1" xr:uid="{7B492C38-A651-3C46-9D60-653CDD89462A}"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="4.75"/>
-    <col customWidth="1" min="2" max="2" width="16.63"/>
-    <col customWidth="1" min="4" max="4" width="13.5"/>
-    <col customWidth="1" min="8" max="8" width="23.63"/>
-    <col customWidth="1" min="10" max="10" width="10.75"/>
-    <col customWidth="1" min="11" max="11" width="12.0"/>
-    <col customWidth="1" min="12" max="12" width="43.75"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="43.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="K1" s="7"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:26" ht="25" customHeight="1">
       <c r="A2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1">
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="7"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="K3" s="7"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="9" t="s">
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="7"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="9" t="s">
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="7"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="9" t="s">
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="7"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="9" t="s">
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="7"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="9" t="s">
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:26" ht="96" customHeight="1">
+      <c r="A9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" ht="72.0" customHeight="1">
-      <c r="A9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="C9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="D9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="E9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="F9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="G9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="H9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="I9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="J9" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="K9" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="L9" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>32</v>
       </c>
       <c r="M9" s="13"/>
       <c r="N9" s="13"/>
@@ -2747,47 +2848,47 @@
       <c r="Y9" s="13"/>
       <c r="Z9" s="13"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="C10" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="D10" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>36</v>
-      </c>
       <c r="E10" s="16">
-        <v>44111.0</v>
+        <v>44111</v>
       </c>
       <c r="F10" s="15">
-        <v>46.55239</v>
+        <v>46.552390000000003</v>
       </c>
       <c r="G10" s="15">
         <v>1.32318</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="J10" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="K10" s="18">
-        <v>18.0</v>
+      <c r="K10" s="17">
+        <v>18</v>
       </c>
       <c r="L10" s="15"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1">
       <c r="A11" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="B11" s="19"/>
+        <v>1</v>
+      </c>
+      <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -2799,11 +2900,11 @@
       <c r="K11" s="7"/>
       <c r="L11" s="9"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1">
       <c r="A12" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="B12" s="19"/>
+        <v>2</v>
+      </c>
+      <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -2815,11 +2916,11 @@
       <c r="K12" s="7"/>
       <c r="L12" s="9"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="A13" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="B13" s="19"/>
+        <v>3</v>
+      </c>
+      <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -2831,11 +2932,11 @@
       <c r="K13" s="7"/>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1">
       <c r="A14" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="B14" s="19"/>
+        <v>4</v>
+      </c>
+      <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -2847,11 +2948,11 @@
       <c r="K14" s="7"/>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1">
       <c r="A15" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="B15" s="19"/>
+        <v>5</v>
+      </c>
+      <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -2863,9 +2964,9 @@
       <c r="K15" s="7"/>
       <c r="L15" s="9"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1">
       <c r="A16" s="9">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -2879,9 +2980,9 @@
       <c r="K16" s="7"/>
       <c r="L16" s="9"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:12" ht="15.75" customHeight="1">
       <c r="A17" s="9">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -2895,9 +2996,9 @@
       <c r="K17" s="7"/>
       <c r="L17" s="9"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:12" ht="15.75" customHeight="1">
       <c r="A18" s="9">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -2911,9 +3012,9 @@
       <c r="K18" s="7"/>
       <c r="L18" s="9"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:12" ht="15.75" customHeight="1">
       <c r="A19" s="9">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -2927,9 +3028,9 @@
       <c r="K19" s="7"/>
       <c r="L19" s="9"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:12" ht="15.75" customHeight="1">
       <c r="A20" s="9">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -2943,9 +3044,9 @@
       <c r="K20" s="7"/>
       <c r="L20" s="9"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:12" ht="15.75" customHeight="1">
       <c r="A21" s="9">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -2959,9 +3060,9 @@
       <c r="K21" s="7"/>
       <c r="L21" s="9"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:12" ht="15.75" customHeight="1">
       <c r="A22" s="9">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -2975,9 +3076,9 @@
       <c r="K22" s="7"/>
       <c r="L22" s="9"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:12" ht="15.75" customHeight="1">
       <c r="A23" s="9">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -2991,9 +3092,9 @@
       <c r="K23" s="7"/>
       <c r="L23" s="9"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:12" ht="15.75" customHeight="1">
       <c r="A24" s="9">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -3007,9 +3108,9 @@
       <c r="K24" s="7"/>
       <c r="L24" s="9"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:12" ht="15.75" customHeight="1">
       <c r="A25" s="9">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -3023,9 +3124,9 @@
       <c r="K25" s="7"/>
       <c r="L25" s="9"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:12" ht="15.75" customHeight="1">
       <c r="A26" s="9">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -3039,9 +3140,9 @@
       <c r="K26" s="7"/>
       <c r="L26" s="9"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:12" ht="15.75" customHeight="1">
       <c r="A27" s="9">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -3055,9 +3156,9 @@
       <c r="K27" s="7"/>
       <c r="L27" s="9"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:12" ht="15.75" customHeight="1">
       <c r="A28" s="9">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -3071,9 +3172,9 @@
       <c r="K28" s="7"/>
       <c r="L28" s="9"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:12" ht="15.75" customHeight="1">
       <c r="A29" s="9">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -3087,9 +3188,9 @@
       <c r="K29" s="7"/>
       <c r="L29" s="9"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:12" ht="15.75" customHeight="1">
       <c r="A30" s="9">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -3103,9 +3204,9 @@
       <c r="K30" s="7"/>
       <c r="L30" s="9"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:12" ht="15.75" customHeight="1">
       <c r="A31" s="9">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -3119,9 +3220,9 @@
       <c r="K31" s="7"/>
       <c r="L31" s="9"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:12" ht="15.75" customHeight="1">
       <c r="A32" s="9">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -3135,9 +3236,9 @@
       <c r="K32" s="7"/>
       <c r="L32" s="9"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:12" ht="15.75" customHeight="1">
       <c r="A33" s="9">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -3151,9 +3252,9 @@
       <c r="K33" s="7"/>
       <c r="L33" s="9"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:12" ht="15.75" customHeight="1">
       <c r="A34" s="9">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -3167,9 +3268,9 @@
       <c r="K34" s="7"/>
       <c r="L34" s="9"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:12" ht="15.75" customHeight="1">
       <c r="A35" s="9">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -3183,9 +3284,9 @@
       <c r="K35" s="7"/>
       <c r="L35" s="9"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:12" ht="15.75" customHeight="1">
       <c r="A36" s="9">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -3199,9 +3300,9 @@
       <c r="K36" s="7"/>
       <c r="L36" s="9"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:12" ht="15.75" customHeight="1">
       <c r="A37" s="9">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -3215,9 +3316,9 @@
       <c r="K37" s="7"/>
       <c r="L37" s="9"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:12" ht="15.75" customHeight="1">
       <c r="A38" s="9">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -3231,9 +3332,9 @@
       <c r="K38" s="7"/>
       <c r="L38" s="9"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:12" ht="15.75" customHeight="1">
       <c r="A39" s="9">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -3247,9 +3348,9 @@
       <c r="K39" s="7"/>
       <c r="L39" s="9"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:12" ht="15.75" customHeight="1">
       <c r="A40" s="9">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -3263,9 +3364,9 @@
       <c r="K40" s="7"/>
       <c r="L40" s="9"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:12" ht="15.75" customHeight="1">
       <c r="A41" s="9">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -3279,9 +3380,9 @@
       <c r="K41" s="7"/>
       <c r="L41" s="9"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:12" ht="15.75" customHeight="1">
       <c r="A42" s="9">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -3295,9 +3396,9 @@
       <c r="K42" s="7"/>
       <c r="L42" s="9"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:12" ht="15.75" customHeight="1">
       <c r="A43" s="9">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -3311,9 +3412,9 @@
       <c r="K43" s="7"/>
       <c r="L43" s="9"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:12" ht="15.75" customHeight="1">
       <c r="A44" s="9">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -3327,9 +3428,9 @@
       <c r="K44" s="7"/>
       <c r="L44" s="9"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:12" ht="15.75" customHeight="1">
       <c r="A45" s="9">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -3343,9 +3444,9 @@
       <c r="K45" s="7"/>
       <c r="L45" s="9"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:12" ht="15.75" customHeight="1">
       <c r="A46" s="9">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -3359,9 +3460,9 @@
       <c r="K46" s="7"/>
       <c r="L46" s="9"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:12" ht="15.75" customHeight="1">
       <c r="A47" s="9">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -3375,9 +3476,9 @@
       <c r="K47" s="7"/>
       <c r="L47" s="9"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:12" ht="15.75" customHeight="1">
       <c r="A48" s="9">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -3391,9 +3492,9 @@
       <c r="K48" s="7"/>
       <c r="L48" s="9"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:12" ht="15.75" customHeight="1">
       <c r="A49" s="9">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -3407,9 +3508,9 @@
       <c r="K49" s="7"/>
       <c r="L49" s="9"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:12" ht="15.75" customHeight="1">
       <c r="A50" s="9">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -3423,618 +3524,618 @@
       <c r="K50" s="7"/>
       <c r="L50" s="9"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:12" ht="15.75" customHeight="1">
       <c r="A51" s="9"/>
       <c r="B51" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K51" s="7"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:12" ht="15.75" customHeight="1">
       <c r="K52" s="7"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:12" ht="15.75" customHeight="1">
       <c r="K53" s="7"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:12" ht="15.75" customHeight="1">
       <c r="K54" s="7"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:12" ht="15.75" customHeight="1">
       <c r="K55" s="7"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:12" ht="15.75" customHeight="1">
       <c r="K56" s="7"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:12" ht="15.75" customHeight="1">
       <c r="K57" s="7"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:12" ht="15.75" customHeight="1">
       <c r="K58" s="7"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:12" ht="15.75" customHeight="1">
       <c r="K59" s="7"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:12" ht="15.75" customHeight="1">
       <c r="K60" s="7"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:12" ht="15.75" customHeight="1">
       <c r="K61" s="7"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:12" ht="15.75" customHeight="1">
       <c r="K62" s="7"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:12" ht="15.75" customHeight="1">
       <c r="K63" s="7"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:12" ht="15.75" customHeight="1">
       <c r="K64" s="7"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="11:11" ht="15.75" customHeight="1">
       <c r="K65" s="7"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="11:11" ht="15.75" customHeight="1">
       <c r="K66" s="7"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="11:11" ht="15.75" customHeight="1">
       <c r="K67" s="7"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="11:11" ht="15.75" customHeight="1">
       <c r="K68" s="7"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="11:11" ht="15.75" customHeight="1">
       <c r="K69" s="7"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="11:11" ht="15.75" customHeight="1">
       <c r="K70" s="7"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="11:11" ht="15.75" customHeight="1">
       <c r="K71" s="7"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="11:11" ht="15.75" customHeight="1">
       <c r="K72" s="7"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="11:11" ht="15.75" customHeight="1">
       <c r="K73" s="7"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="11:11" ht="15.75" customHeight="1">
       <c r="K74" s="7"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="11:11" ht="15.75" customHeight="1">
       <c r="K75" s="7"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="11:11" ht="15.75" customHeight="1">
       <c r="K76" s="7"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="11:11" ht="15.75" customHeight="1">
       <c r="K77" s="7"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="11:11" ht="15.75" customHeight="1">
       <c r="K78" s="7"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="11:11" ht="15.75" customHeight="1">
       <c r="K79" s="7"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="11:11" ht="15.75" customHeight="1">
       <c r="K80" s="7"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="11:11" ht="15.75" customHeight="1">
       <c r="K81" s="7"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="11:11" ht="15.75" customHeight="1">
       <c r="K82" s="7"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="11:11" ht="15.75" customHeight="1">
       <c r="K83" s="7"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="11:11" ht="15.75" customHeight="1">
       <c r="K84" s="7"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="11:11" ht="15.75" customHeight="1">
       <c r="K85" s="7"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="11:11" ht="15.75" customHeight="1">
       <c r="K86" s="7"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="11:11" ht="15.75" customHeight="1">
       <c r="K87" s="7"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="11:11" ht="15.75" customHeight="1">
       <c r="K88" s="7"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="11:11" ht="15.75" customHeight="1">
       <c r="K89" s="7"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="11:11" ht="15.75" customHeight="1">
       <c r="K90" s="7"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="11:11" ht="15.75" customHeight="1">
       <c r="K91" s="7"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="11:11" ht="15.75" customHeight="1">
       <c r="K92" s="7"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="11:11" ht="15.75" customHeight="1">
       <c r="K93" s="7"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="11:11" ht="15.75" customHeight="1">
       <c r="K94" s="7"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="11:11" ht="15.75" customHeight="1">
       <c r="K95" s="7"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="11:11" ht="15.75" customHeight="1">
       <c r="K96" s="7"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="11:11" ht="15.75" customHeight="1">
       <c r="K97" s="7"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="11:11" ht="15.75" customHeight="1">
       <c r="K98" s="7"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="11:11" ht="15.75" customHeight="1">
       <c r="K99" s="7"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="11:11" ht="15.75" customHeight="1">
       <c r="K100" s="7"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="11:11" ht="15.75" customHeight="1">
       <c r="K101" s="7"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="11:11" ht="15.75" customHeight="1">
       <c r="K102" s="7"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="11:11" ht="15.75" customHeight="1">
       <c r="K103" s="7"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="11:11" ht="15.75" customHeight="1">
       <c r="K104" s="7"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="11:11" ht="15.75" customHeight="1">
       <c r="K105" s="7"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="11:11" ht="15.75" customHeight="1">
       <c r="K106" s="7"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="11:11" ht="15.75" customHeight="1">
       <c r="K107" s="7"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="11:11" ht="15.75" customHeight="1">
       <c r="K108" s="7"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="11:11" ht="15.75" customHeight="1">
       <c r="K109" s="7"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="11:11" ht="15.75" customHeight="1">
       <c r="K110" s="7"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="11:11" ht="15.75" customHeight="1">
       <c r="K111" s="7"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="11:11" ht="15.75" customHeight="1">
       <c r="K112" s="7"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="11:11" ht="15.75" customHeight="1">
       <c r="K113" s="7"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="11:11" ht="15.75" customHeight="1">
       <c r="K114" s="7"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="11:11" ht="15.75" customHeight="1">
       <c r="K115" s="7"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="11:11" ht="15.75" customHeight="1">
       <c r="K116" s="7"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="11:11" ht="15.75" customHeight="1">
       <c r="K117" s="7"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="11:11" ht="15.75" customHeight="1">
       <c r="K118" s="7"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="11:11" ht="15.75" customHeight="1">
       <c r="K119" s="7"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="11:11" ht="15.75" customHeight="1">
       <c r="K120" s="7"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="11:11" ht="15.75" customHeight="1">
       <c r="K121" s="7"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="11:11" ht="15.75" customHeight="1">
       <c r="K122" s="7"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="11:11" ht="15.75" customHeight="1">
       <c r="K123" s="7"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="11:11" ht="15.75" customHeight="1">
       <c r="K124" s="7"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="11:11" ht="15.75" customHeight="1">
       <c r="K125" s="7"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="11:11" ht="15.75" customHeight="1">
       <c r="K126" s="7"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="11:11" ht="15.75" customHeight="1">
       <c r="K127" s="7"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="11:11" ht="15.75" customHeight="1">
       <c r="K128" s="7"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="11:11" ht="15.75" customHeight="1">
       <c r="K129" s="7"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="11:11" ht="15.75" customHeight="1">
       <c r="K130" s="7"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="11:11" ht="15.75" customHeight="1">
       <c r="K131" s="7"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="11:11" ht="15.75" customHeight="1">
       <c r="K132" s="7"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="11:11" ht="15.75" customHeight="1">
       <c r="K133" s="7"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="11:11" ht="15.75" customHeight="1">
       <c r="K134" s="7"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="11:11" ht="15.75" customHeight="1">
       <c r="K135" s="7"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="11:11" ht="15.75" customHeight="1">
       <c r="K136" s="7"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="11:11" ht="15.75" customHeight="1">
       <c r="K137" s="7"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="11:11" ht="15.75" customHeight="1">
       <c r="K138" s="7"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="11:11" ht="15.75" customHeight="1">
       <c r="K139" s="7"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="11:11" ht="15.75" customHeight="1">
       <c r="K140" s="7"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="11:11" ht="15.75" customHeight="1">
       <c r="K141" s="7"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="11:11" ht="15.75" customHeight="1">
       <c r="K142" s="7"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="11:11" ht="15.75" customHeight="1">
       <c r="K143" s="7"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="11:11" ht="15.75" customHeight="1">
       <c r="K144" s="7"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="11:11" ht="15.75" customHeight="1">
       <c r="K145" s="7"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="11:11" ht="15.75" customHeight="1">
       <c r="K146" s="7"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="11:11" ht="15.75" customHeight="1">
       <c r="K147" s="7"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="11:11" ht="15.75" customHeight="1">
       <c r="K148" s="7"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="11:11" ht="15.75" customHeight="1">
       <c r="K149" s="7"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="11:11" ht="15.75" customHeight="1">
       <c r="K150" s="7"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="11:11" ht="15.75" customHeight="1">
       <c r="K151" s="7"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="11:11" ht="15.75" customHeight="1">
       <c r="K152" s="7"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="11:11" ht="15.75" customHeight="1">
       <c r="K153" s="7"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="11:11" ht="15.75" customHeight="1">
       <c r="K154" s="7"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="11:11" ht="15.75" customHeight="1">
       <c r="K155" s="7"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="11:11" ht="15.75" customHeight="1">
       <c r="K156" s="7"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="11:11" ht="15.75" customHeight="1">
       <c r="K157" s="7"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="11:11" ht="15.75" customHeight="1">
       <c r="K158" s="7"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="11:11" ht="15.75" customHeight="1">
       <c r="K159" s="7"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="11:11" ht="15.75" customHeight="1">
       <c r="K160" s="7"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="11:11" ht="15.75" customHeight="1">
       <c r="K161" s="7"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="11:11" ht="15.75" customHeight="1">
       <c r="K162" s="7"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="11:11" ht="15.75" customHeight="1">
       <c r="K163" s="7"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="11:11" ht="15.75" customHeight="1">
       <c r="K164" s="7"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="11:11" ht="15.75" customHeight="1">
       <c r="K165" s="7"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="11:11" ht="15.75" customHeight="1">
       <c r="K166" s="7"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="11:11" ht="15.75" customHeight="1">
       <c r="K167" s="7"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="11:11" ht="15.75" customHeight="1">
       <c r="K168" s="7"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="11:11" ht="15.75" customHeight="1">
       <c r="K169" s="7"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="11:11" ht="15.75" customHeight="1">
       <c r="K170" s="7"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="11:11" ht="15.75" customHeight="1">
       <c r="K171" s="7"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="11:11" ht="15.75" customHeight="1">
       <c r="K172" s="7"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="11:11" ht="15.75" customHeight="1">
       <c r="K173" s="7"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="11:11" ht="15.75" customHeight="1">
       <c r="K174" s="7"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="11:11" ht="15.75" customHeight="1">
       <c r="K175" s="7"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="11:11" ht="15.75" customHeight="1">
       <c r="K176" s="7"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="11:11" ht="15.75" customHeight="1">
       <c r="K177" s="7"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="11:11" ht="15.75" customHeight="1">
       <c r="K178" s="7"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="11:11" ht="15.75" customHeight="1">
       <c r="K179" s="7"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="11:11" ht="15.75" customHeight="1">
       <c r="K180" s="7"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="11:11" ht="15.75" customHeight="1">
       <c r="K181" s="7"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="11:11" ht="15.75" customHeight="1">
       <c r="K182" s="7"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="11:11" ht="15.75" customHeight="1">
       <c r="K183" s="7"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="11:11" ht="15.75" customHeight="1">
       <c r="K184" s="7"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="11:11" ht="15.75" customHeight="1">
       <c r="K185" s="7"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="11:11" ht="15.75" customHeight="1">
       <c r="K186" s="7"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="11:11" ht="15.75" customHeight="1">
       <c r="K187" s="7"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="11:11" ht="15.75" customHeight="1">
       <c r="K188" s="7"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="11:11" ht="15.75" customHeight="1">
       <c r="K189" s="7"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="11:11" ht="15.75" customHeight="1">
       <c r="K190" s="7"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="11:11" ht="15.75" customHeight="1">
       <c r="K191" s="7"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="11:11" ht="15.75" customHeight="1">
       <c r="K192" s="7"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="11:11" ht="15.75" customHeight="1">
       <c r="K193" s="7"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="11:11" ht="15.75" customHeight="1">
       <c r="K194" s="7"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="11:11" ht="15.75" customHeight="1">
       <c r="K195" s="7"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="11:11" ht="15.75" customHeight="1">
       <c r="K196" s="7"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="11:11" ht="15.75" customHeight="1">
       <c r="K197" s="7"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="11:11" ht="15.75" customHeight="1">
       <c r="K198" s="7"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="11:11" ht="15.75" customHeight="1">
       <c r="K199" s="7"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="11:11" ht="15.75" customHeight="1">
       <c r="K200" s="7"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="11:11" ht="15.75" customHeight="1">
       <c r="K201" s="7"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="11:11" ht="15.75" customHeight="1">
       <c r="K202" s="7"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="11:11" ht="15.75" customHeight="1">
       <c r="K203" s="7"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="11:11" ht="15.75" customHeight="1">
       <c r="K204" s="7"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="11:11" ht="15.75" customHeight="1">
       <c r="K205" s="7"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="11:11" ht="15.75" customHeight="1">
       <c r="K206" s="7"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="11:11" ht="15.75" customHeight="1">
       <c r="K207" s="7"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="11:11" ht="15.75" customHeight="1">
       <c r="K208" s="7"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="11:11" ht="15.75" customHeight="1">
       <c r="K209" s="7"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="11:11" ht="15.75" customHeight="1">
       <c r="K210" s="7"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="11:11" ht="15.75" customHeight="1">
       <c r="K211" s="7"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="11:11" ht="15.75" customHeight="1">
       <c r="K212" s="7"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="11:11" ht="15.75" customHeight="1">
       <c r="K213" s="7"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="11:11" ht="15.75" customHeight="1">
       <c r="K214" s="7"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="11:11" ht="15.75" customHeight="1">
       <c r="K215" s="7"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="11:11" ht="15.75" customHeight="1">
       <c r="K216" s="7"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="11:11" ht="15.75" customHeight="1">
       <c r="K217" s="7"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="11:11" ht="15.75" customHeight="1">
       <c r="K218" s="7"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="11:11" ht="15.75" customHeight="1">
       <c r="K219" s="7"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="11:11" ht="15.75" customHeight="1">
       <c r="K220" s="7"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
+    <row r="221" spans="11:11" ht="15.75" customHeight="1">
       <c r="K221" s="7"/>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
+    <row r="222" spans="11:11" ht="15.75" customHeight="1">
       <c r="K222" s="7"/>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
+    <row r="223" spans="11:11" ht="15.75" customHeight="1">
       <c r="K223" s="7"/>
     </row>
-    <row r="224" ht="15.75" customHeight="1">
+    <row r="224" spans="11:11" ht="15.75" customHeight="1">
       <c r="K224" s="7"/>
     </row>
-    <row r="225" ht="15.75" customHeight="1">
+    <row r="225" spans="11:11" ht="15.75" customHeight="1">
       <c r="K225" s="7"/>
     </row>
-    <row r="226" ht="15.75" customHeight="1">
+    <row r="226" spans="11:11" ht="15.75" customHeight="1">
       <c r="K226" s="7"/>
     </row>
-    <row r="227" ht="15.75" customHeight="1">
+    <row r="227" spans="11:11" ht="15.75" customHeight="1">
       <c r="K227" s="7"/>
     </row>
-    <row r="228" ht="15.75" customHeight="1">
+    <row r="228" spans="11:11" ht="15.75" customHeight="1">
       <c r="K228" s="7"/>
     </row>
-    <row r="229" ht="15.75" customHeight="1">
+    <row r="229" spans="11:11" ht="15.75" customHeight="1">
       <c r="K229" s="7"/>
     </row>
-    <row r="230" ht="15.75" customHeight="1">
+    <row r="230" spans="11:11" ht="15.75" customHeight="1">
       <c r="K230" s="7"/>
     </row>
-    <row r="231" ht="15.75" customHeight="1">
+    <row r="231" spans="11:11" ht="15.75" customHeight="1">
       <c r="K231" s="7"/>
     </row>
-    <row r="232" ht="15.75" customHeight="1">
+    <row r="232" spans="11:11" ht="15.75" customHeight="1">
       <c r="K232" s="7"/>
     </row>
-    <row r="233" ht="15.75" customHeight="1">
+    <row r="233" spans="11:11" ht="15.75" customHeight="1">
       <c r="K233" s="7"/>
     </row>
-    <row r="234" ht="15.75" customHeight="1">
+    <row r="234" spans="11:11" ht="15.75" customHeight="1">
       <c r="K234" s="7"/>
     </row>
-    <row r="235" ht="15.75" customHeight="1">
+    <row r="235" spans="11:11" ht="15.75" customHeight="1">
       <c r="K235" s="7"/>
     </row>
-    <row r="236" ht="15.75" customHeight="1">
+    <row r="236" spans="11:11" ht="15.75" customHeight="1">
       <c r="K236" s="7"/>
     </row>
-    <row r="237" ht="15.75" customHeight="1">
+    <row r="237" spans="11:11" ht="15.75" customHeight="1">
       <c r="K237" s="7"/>
     </row>
-    <row r="238" ht="15.75" customHeight="1">
+    <row r="238" spans="11:11" ht="15.75" customHeight="1">
       <c r="K238" s="7"/>
     </row>
-    <row r="239" ht="15.75" customHeight="1">
+    <row r="239" spans="11:11" ht="15.75" customHeight="1">
       <c r="K239" s="7"/>
     </row>
-    <row r="240" ht="15.75" customHeight="1">
+    <row r="240" spans="11:11" ht="15.75" customHeight="1">
       <c r="K240" s="7"/>
     </row>
-    <row r="241" ht="15.75" customHeight="1">
+    <row r="241" spans="11:11" ht="15.75" customHeight="1">
       <c r="K241" s="7"/>
     </row>
-    <row r="242" ht="15.75" customHeight="1">
+    <row r="242" spans="11:11" ht="15.75" customHeight="1">
       <c r="K242" s="7"/>
     </row>
-    <row r="243" ht="15.75" customHeight="1">
+    <row r="243" spans="11:11" ht="15.75" customHeight="1">
       <c r="K243" s="7"/>
     </row>
-    <row r="244" ht="15.75" customHeight="1">
+    <row r="244" spans="11:11" ht="15.75" customHeight="1">
       <c r="K244" s="7"/>
     </row>
-    <row r="245" ht="15.75" customHeight="1">
+    <row r="245" spans="11:11" ht="15.75" customHeight="1">
       <c r="K245" s="7"/>
     </row>
-    <row r="246" ht="15.75" customHeight="1">
+    <row r="246" spans="11:11" ht="15.75" customHeight="1">
       <c r="K246" s="7"/>
     </row>
-    <row r="247" ht="15.75" customHeight="1">
+    <row r="247" spans="11:11" ht="15.75" customHeight="1">
       <c r="K247" s="7"/>
     </row>
-    <row r="248" ht="15.75" customHeight="1">
+    <row r="248" spans="11:11" ht="15.75" customHeight="1">
       <c r="K248" s="7"/>
     </row>
-    <row r="249" ht="15.75" customHeight="1">
+    <row r="249" spans="11:11" ht="15.75" customHeight="1">
       <c r="K249" s="7"/>
     </row>
-    <row r="250" ht="15.75" customHeight="1">
+    <row r="250" spans="11:11" ht="15.75" customHeight="1">
       <c r="K250" s="7"/>
     </row>
-    <row r="251" ht="15.75" customHeight="1">
+    <row r="251" spans="11:11" ht="15.75" customHeight="1">
       <c r="K251" s="7"/>
     </row>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="252" spans="11:11" ht="15.75" customHeight="1"/>
+    <row r="253" spans="11:11" ht="15.75" customHeight="1"/>
+    <row r="254" spans="11:11" ht="15.75" customHeight="1"/>
+    <row r="255" spans="11:11" ht="15.75" customHeight="1"/>
+    <row r="256" spans="11:11" ht="15.75" customHeight="1"/>
     <row r="257" ht="15.75" customHeight="1"/>
     <row r="258" ht="15.75" customHeight="1"/>
     <row r="259" ht="15.75" customHeight="1"/>
@@ -4780,158 +4881,169 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H10">
-      <formula1>'Dropdown options'!$I$2:$I$61</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H11:H50">
-      <formula1>'Dropdown options'!$I$28:$I$61</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J10:J50">
-      <formula1>'Dropdown options'!$J$2:$J$7</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+          <x14:formula1>
+            <xm:f>'Dropdown options'!$I$2:$I$61</xm:f>
+          </x14:formula1>
+          <xm:sqref>H10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+          <x14:formula1>
+            <xm:f>'Dropdown options'!$I$28:$I$61</xm:f>
+          </x14:formula1>
+          <xm:sqref>H11:H50</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
+          <x14:formula1>
+            <xm:f>'Dropdown options'!$J$2:$J$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>J10:J50</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="4.75"/>
-    <col customWidth="1" min="11" max="11" width="25.5"/>
-    <col customWidth="1" min="12" max="12" width="10.25"/>
-    <col customWidth="1" min="13" max="13" width="39.5"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="11" max="11" width="25.5" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" customWidth="1"/>
+    <col min="13" max="13" width="39.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1"/>
-    <row r="2" ht="33.0" customHeight="1">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1"/>
+    <row r="2" spans="1:13" ht="33" customHeight="1">
       <c r="A2" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" customHeight="1"/>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A4" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1"/>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="9" t="s">
+    <row r="5" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A5" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="9" t="s">
+    <row r="6" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A6" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="9" t="s">
+    <row r="7" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A7" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="9" t="s">
+    <row r="8" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A8" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="9" t="s">
+    <row r="9" spans="1:13" ht="112" customHeight="1">
+      <c r="B9" s="13" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" ht="99.75" customHeight="1">
-      <c r="B9" s="13" t="s">
+      <c r="C9" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="D9" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="E9" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="F9" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="G9" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="H9" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="I9" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="J9" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="K9" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="L9" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="M9" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A10" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="M9" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="14" t="s">
+      <c r="C10" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="D10" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="15" t="s">
+      <c r="E10" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="F10" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="G10" s="18">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="H10" s="15">
+        <v>51</v>
+      </c>
+      <c r="I10" s="15">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="J10" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="21">
-        <v>0.05555555555555555</v>
-      </c>
-      <c r="H10" s="15">
-        <v>51.0</v>
-      </c>
-      <c r="I10" s="15">
-        <v>34.2</v>
-      </c>
-      <c r="J10" s="15" t="s">
+      <c r="K10" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="L10" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="L10" s="15" t="s">
+      <c r="M10" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="M10" s="15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
+    </row>
+    <row r="11" spans="1:13" ht="15.75" customHeight="1">
       <c r="A11" s="9">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B11" s="9"/>
-      <c r="C11" s="19"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
@@ -4943,9 +5055,9 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:13" ht="15.75" customHeight="1">
       <c r="A12" s="9">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -4960,9 +5072,9 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:13" ht="15.75" customHeight="1">
       <c r="A13" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -4977,9 +5089,9 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:13" ht="15.75" customHeight="1">
       <c r="A14" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -4994,9 +5106,9 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:13" ht="15.75" customHeight="1">
       <c r="A15" s="9">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -5011,9 +5123,9 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:13" ht="15.75" customHeight="1">
       <c r="A16" s="9">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -5028,9 +5140,9 @@
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:13" ht="15.75" customHeight="1">
       <c r="A17" s="9">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -5045,9 +5157,9 @@
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:13" ht="15.75" customHeight="1">
       <c r="A18" s="9">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -5062,9 +5174,9 @@
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:13" ht="15.75" customHeight="1">
       <c r="A19" s="9">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -5079,9 +5191,9 @@
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:13" ht="15.75" customHeight="1">
       <c r="A20" s="9">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -5096,9 +5208,9 @@
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:13" ht="15.75" customHeight="1">
       <c r="A21" s="9">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -5113,9 +5225,9 @@
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:13" ht="15.75" customHeight="1">
       <c r="A22" s="9">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -5130,9 +5242,9 @@
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:13" ht="15.75" customHeight="1">
       <c r="A23" s="9">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -5147,9 +5259,9 @@
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:13" ht="15.75" customHeight="1">
       <c r="A24" s="9">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -5164,9 +5276,9 @@
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:13" ht="15.75" customHeight="1">
       <c r="A25" s="9">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -5181,9 +5293,9 @@
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:13" ht="15.75" customHeight="1">
       <c r="A26" s="9">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -5198,9 +5310,9 @@
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:13" ht="15.75" customHeight="1">
       <c r="A27" s="9">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -5215,9 +5327,9 @@
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:13" ht="15.75" customHeight="1">
       <c r="A28" s="9">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -5232,9 +5344,9 @@
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:13" ht="15.75" customHeight="1">
       <c r="A29" s="9">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -5249,9 +5361,9 @@
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:13" ht="15.75" customHeight="1">
       <c r="A30" s="9">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -5266,9 +5378,9 @@
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:13" ht="15.75" customHeight="1">
       <c r="A31" s="9">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -5283,9 +5395,9 @@
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:13" ht="15.75" customHeight="1">
       <c r="A32" s="9">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -5300,9 +5412,9 @@
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:13" ht="15.75" customHeight="1">
       <c r="A33" s="9">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -5317,9 +5429,9 @@
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:13" ht="15.75" customHeight="1">
       <c r="A34" s="9">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -5334,9 +5446,9 @@
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:13" ht="15.75" customHeight="1">
       <c r="A35" s="9">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -5351,9 +5463,9 @@
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:13" ht="15.75" customHeight="1">
       <c r="A36" s="9">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -5368,9 +5480,9 @@
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:13" ht="15.75" customHeight="1">
       <c r="A37" s="9">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -5385,9 +5497,9 @@
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:13" ht="15.75" customHeight="1">
       <c r="A38" s="9">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -5402,9 +5514,9 @@
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:13" ht="15.75" customHeight="1">
       <c r="A39" s="9">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -5419,9 +5531,9 @@
       <c r="L39" s="9"/>
       <c r="M39" s="9"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:13" ht="15.75" customHeight="1">
       <c r="A40" s="9">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -5436,9 +5548,9 @@
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:13" ht="15.75" customHeight="1">
       <c r="A41" s="9">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -5453,9 +5565,9 @@
       <c r="L41" s="9"/>
       <c r="M41" s="9"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:13" ht="15.75" customHeight="1">
       <c r="A42" s="9">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -5470,9 +5582,9 @@
       <c r="L42" s="9"/>
       <c r="M42" s="9"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:13" ht="15.75" customHeight="1">
       <c r="A43" s="9">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -5487,9 +5599,9 @@
       <c r="L43" s="9"/>
       <c r="M43" s="9"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:13" ht="15.75" customHeight="1">
       <c r="A44" s="9">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -5504,9 +5616,9 @@
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:13" ht="15.75" customHeight="1">
       <c r="A45" s="9">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -5521,9 +5633,9 @@
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:13" ht="15.75" customHeight="1">
       <c r="A46" s="9">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -5538,9 +5650,9 @@
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:13" ht="15.75" customHeight="1">
       <c r="A47" s="9">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -5555,9 +5667,9 @@
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:13" ht="15.75" customHeight="1">
       <c r="A48" s="9">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -5572,9 +5684,9 @@
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:13" ht="15.75" customHeight="1">
       <c r="A49" s="9">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -5589,9 +5701,9 @@
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:13" ht="15.75" customHeight="1">
       <c r="A50" s="9">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -5606,9 +5718,9 @@
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:13" ht="15.75" customHeight="1">
       <c r="A51" s="9">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -5623,9 +5735,9 @@
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:13" ht="15.75" customHeight="1">
       <c r="A52" s="9">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -5640,9 +5752,9 @@
       <c r="L52" s="9"/>
       <c r="M52" s="9"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:13" ht="15.75" customHeight="1">
       <c r="A53" s="9">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -5657,9 +5769,9 @@
       <c r="L53" s="9"/>
       <c r="M53" s="9"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:13" ht="15.75" customHeight="1">
       <c r="A54" s="9">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
@@ -5674,9 +5786,9 @@
       <c r="L54" s="9"/>
       <c r="M54" s="9"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:13" ht="15.75" customHeight="1">
       <c r="A55" s="9">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
@@ -5691,9 +5803,9 @@
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:13" ht="15.75" customHeight="1">
       <c r="A56" s="9">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -5708,9 +5820,9 @@
       <c r="L56" s="9"/>
       <c r="M56" s="9"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:13" ht="15.75" customHeight="1">
       <c r="A57" s="9">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
@@ -5725,9 +5837,9 @@
       <c r="L57" s="9"/>
       <c r="M57" s="9"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:13" ht="15.75" customHeight="1">
       <c r="A58" s="9">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
@@ -5742,9 +5854,9 @@
       <c r="L58" s="9"/>
       <c r="M58" s="9"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:13" ht="15.75" customHeight="1">
       <c r="A59" s="9">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
@@ -5759,9 +5871,9 @@
       <c r="L59" s="9"/>
       <c r="M59" s="9"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:13" ht="15.75" customHeight="1">
       <c r="A60" s="9">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -5776,9 +5888,9 @@
       <c r="L60" s="9"/>
       <c r="M60" s="9"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:13" ht="15.75" customHeight="1">
       <c r="A61" s="9">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
@@ -5793,9 +5905,9 @@
       <c r="L61" s="9"/>
       <c r="M61" s="9"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:13" ht="15.75" customHeight="1">
       <c r="A62" s="9">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
@@ -5810,9 +5922,9 @@
       <c r="L62" s="9"/>
       <c r="M62" s="9"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:13" ht="15.75" customHeight="1">
       <c r="A63" s="9">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
@@ -5827,9 +5939,9 @@
       <c r="L63" s="9"/>
       <c r="M63" s="9"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:13" ht="15.75" customHeight="1">
       <c r="A64" s="9">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
@@ -5844,9 +5956,9 @@
       <c r="L64" s="9"/>
       <c r="M64" s="9"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:13" ht="15.75" customHeight="1">
       <c r="A65" s="9">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
@@ -5861,9 +5973,9 @@
       <c r="L65" s="9"/>
       <c r="M65" s="9"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:13" ht="15.75" customHeight="1">
       <c r="A66" s="9">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
@@ -5878,9 +5990,9 @@
       <c r="L66" s="9"/>
       <c r="M66" s="9"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:13" ht="15.75" customHeight="1">
       <c r="A67" s="9">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
@@ -5895,9 +6007,9 @@
       <c r="L67" s="9"/>
       <c r="M67" s="9"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:13" ht="15.75" customHeight="1">
       <c r="A68" s="9">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
@@ -5912,9 +6024,9 @@
       <c r="L68" s="9"/>
       <c r="M68" s="9"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:13" ht="15.75" customHeight="1">
       <c r="A69" s="9">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
@@ -5929,9 +6041,9 @@
       <c r="L69" s="9"/>
       <c r="M69" s="9"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:13" ht="15.75" customHeight="1">
       <c r="A70" s="9">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
@@ -5946,9 +6058,9 @@
       <c r="L70" s="9"/>
       <c r="M70" s="9"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:13" ht="15.75" customHeight="1">
       <c r="A71" s="9">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
@@ -5963,9 +6075,9 @@
       <c r="L71" s="9"/>
       <c r="M71" s="9"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:13" ht="15.75" customHeight="1">
       <c r="A72" s="9">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
@@ -5980,9 +6092,9 @@
       <c r="L72" s="9"/>
       <c r="M72" s="9"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:13" ht="15.75" customHeight="1">
       <c r="A73" s="9">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
@@ -5997,9 +6109,9 @@
       <c r="L73" s="9"/>
       <c r="M73" s="9"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:13" ht="15.75" customHeight="1">
       <c r="A74" s="9">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
@@ -6014,9 +6126,9 @@
       <c r="L74" s="9"/>
       <c r="M74" s="9"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:13" ht="15.75" customHeight="1">
       <c r="A75" s="9">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
@@ -6031,9 +6143,9 @@
       <c r="L75" s="9"/>
       <c r="M75" s="9"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:13" ht="15.75" customHeight="1">
       <c r="A76" s="9">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
@@ -6048,9 +6160,9 @@
       <c r="L76" s="9"/>
       <c r="M76" s="9"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:13" ht="15.75" customHeight="1">
       <c r="A77" s="9">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
@@ -6065,9 +6177,9 @@
       <c r="L77" s="9"/>
       <c r="M77" s="9"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:13" ht="15.75" customHeight="1">
       <c r="A78" s="9">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
@@ -6082,9 +6194,9 @@
       <c r="L78" s="9"/>
       <c r="M78" s="9"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:13" ht="15.75" customHeight="1">
       <c r="A79" s="9">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
@@ -6099,9 +6211,9 @@
       <c r="L79" s="9"/>
       <c r="M79" s="9"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:13" ht="15.75" customHeight="1">
       <c r="A80" s="9">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
@@ -6116,9 +6228,9 @@
       <c r="L80" s="9"/>
       <c r="M80" s="9"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:13" ht="15.75" customHeight="1">
       <c r="A81" s="9">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
@@ -6133,9 +6245,9 @@
       <c r="L81" s="9"/>
       <c r="M81" s="9"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:13" ht="15.75" customHeight="1">
       <c r="A82" s="9">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
@@ -6150,9 +6262,9 @@
       <c r="L82" s="9"/>
       <c r="M82" s="9"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:13" ht="15.75" customHeight="1">
       <c r="A83" s="9">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
@@ -6167,9 +6279,9 @@
       <c r="L83" s="9"/>
       <c r="M83" s="9"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:13" ht="15.75" customHeight="1">
       <c r="A84" s="9">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
@@ -6184,9 +6296,9 @@
       <c r="L84" s="9"/>
       <c r="M84" s="9"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:13" ht="15.75" customHeight="1">
       <c r="A85" s="9">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
@@ -6201,9 +6313,9 @@
       <c r="L85" s="9"/>
       <c r="M85" s="9"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:13" ht="15.75" customHeight="1">
       <c r="A86" s="9">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
@@ -6218,9 +6330,9 @@
       <c r="L86" s="9"/>
       <c r="M86" s="9"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:13" ht="15.75" customHeight="1">
       <c r="A87" s="9">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
@@ -6235,9 +6347,9 @@
       <c r="L87" s="9"/>
       <c r="M87" s="9"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:13" ht="15.75" customHeight="1">
       <c r="A88" s="9">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
@@ -6252,9 +6364,9 @@
       <c r="L88" s="9"/>
       <c r="M88" s="9"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:13" ht="15.75" customHeight="1">
       <c r="A89" s="9">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
@@ -6269,9 +6381,9 @@
       <c r="L89" s="9"/>
       <c r="M89" s="9"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:13" ht="15.75" customHeight="1">
       <c r="A90" s="9">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
@@ -6286,9 +6398,9 @@
       <c r="L90" s="9"/>
       <c r="M90" s="9"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:13" ht="15.75" customHeight="1">
       <c r="A91" s="9">
-        <v>81.0</v>
+        <v>81</v>
       </c>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
@@ -6303,9 +6415,9 @@
       <c r="L91" s="9"/>
       <c r="M91" s="9"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:13" ht="15.75" customHeight="1">
       <c r="A92" s="9">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
@@ -6320,9 +6432,9 @@
       <c r="L92" s="9"/>
       <c r="M92" s="9"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:13" ht="15.75" customHeight="1">
       <c r="A93" s="9">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
@@ -6337,9 +6449,9 @@
       <c r="L93" s="9"/>
       <c r="M93" s="9"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:13" ht="15.75" customHeight="1">
       <c r="A94" s="9">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
@@ -6354,9 +6466,9 @@
       <c r="L94" s="9"/>
       <c r="M94" s="9"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:13" ht="15.75" customHeight="1">
       <c r="A95" s="9">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
@@ -6371,9 +6483,9 @@
       <c r="L95" s="9"/>
       <c r="M95" s="9"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:13" ht="15.75" customHeight="1">
       <c r="A96" s="9">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
@@ -6388,9 +6500,9 @@
       <c r="L96" s="9"/>
       <c r="M96" s="9"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:13" ht="15.75" customHeight="1">
       <c r="A97" s="9">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
@@ -6405,9 +6517,9 @@
       <c r="L97" s="9"/>
       <c r="M97" s="9"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:13" ht="15.75" customHeight="1">
       <c r="A98" s="9">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
@@ -6422,9 +6534,9 @@
       <c r="L98" s="9"/>
       <c r="M98" s="9"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:13" ht="15.75" customHeight="1">
       <c r="A99" s="9">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
@@ -6439,9 +6551,9 @@
       <c r="L99" s="9"/>
       <c r="M99" s="9"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:13" ht="15.75" customHeight="1">
       <c r="A100" s="9">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
@@ -6456,9 +6568,9 @@
       <c r="L100" s="9"/>
       <c r="M100" s="9"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:13" ht="15.75" customHeight="1">
       <c r="A101" s="9">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
@@ -6473,9 +6585,9 @@
       <c r="L101" s="9"/>
       <c r="M101" s="9"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:13" ht="15.75" customHeight="1">
       <c r="A102" s="9">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
@@ -6490,9 +6602,9 @@
       <c r="L102" s="9"/>
       <c r="M102" s="9"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:13" ht="15.75" customHeight="1">
       <c r="A103" s="9">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
@@ -6507,9 +6619,9 @@
       <c r="L103" s="9"/>
       <c r="M103" s="9"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:13" ht="15.75" customHeight="1">
       <c r="A104" s="9">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
@@ -6524,9 +6636,9 @@
       <c r="L104" s="9"/>
       <c r="M104" s="9"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:13" ht="15.75" customHeight="1">
       <c r="A105" s="9">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
@@ -6541,9 +6653,9 @@
       <c r="L105" s="9"/>
       <c r="M105" s="9"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:13" ht="15.75" customHeight="1">
       <c r="A106" s="9">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
@@ -6558,9 +6670,9 @@
       <c r="L106" s="9"/>
       <c r="M106" s="9"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:13" ht="15.75" customHeight="1">
       <c r="A107" s="9">
-        <v>97.0</v>
+        <v>97</v>
       </c>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
@@ -6575,9 +6687,9 @@
       <c r="L107" s="9"/>
       <c r="M107" s="9"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:13" ht="15.75" customHeight="1">
       <c r="A108" s="9">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
@@ -6592,9 +6704,9 @@
       <c r="L108" s="9"/>
       <c r="M108" s="9"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:13" ht="15.75" customHeight="1">
       <c r="A109" s="9">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
@@ -6609,9 +6721,9 @@
       <c r="L109" s="9"/>
       <c r="M109" s="9"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:13" ht="15.75" customHeight="1">
       <c r="A110" s="9">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
@@ -6626,9 +6738,9 @@
       <c r="L110" s="9"/>
       <c r="M110" s="9"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:13" ht="15.75" customHeight="1">
       <c r="B111" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
@@ -6642,7 +6754,7 @@
       <c r="L111" s="9"/>
       <c r="M111" s="9"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="112" spans="1:13" ht="15.75" customHeight="1"/>
     <row r="113" ht="15.75" customHeight="1"/>
     <row r="114" ht="15.75" customHeight="1"/>
     <row r="115" ht="15.75" customHeight="1"/>
@@ -7532,2738 +7644,2758 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K10 K12:K110">
-      <formula1>'Dropdown options'!$B$2:$B$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K11">
-      <formula1>'Dropdown options'!$B$2:$B$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F10:F110">
-      <formula1>'Dropdown options'!$D$2:$D$9</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J10:J110">
-      <formula1>'Dropdown options'!$A$2:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L10:L110">
-      <formula1>'Dropdown options'!$C$2:$C$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C10:C110">
-      <formula1>'Metadata A (Sampling)'!$B$10:$B$50</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
+          <x14:formula1>
+            <xm:f>'Dropdown options'!$B$2:$B$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>K10 K12:K110</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
+          <x14:formula1>
+            <xm:f>'Dropdown options'!$B$2:$B$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>K11</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
+          <x14:formula1>
+            <xm:f>'Dropdown options'!$D$2:$D$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>F10:F110</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000003000000}">
+          <x14:formula1>
+            <xm:f>'Dropdown options'!$A$2:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>J10:J110</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000004000000}">
+          <x14:formula1>
+            <xm:f>'Dropdown options'!$C$2:$C$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>L10:L110</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000005000000}">
+          <x14:formula1>
+            <xm:f>'Metadata A (Sampling)'!$B$10:$B$50</xm:f>
+          </x14:formula1>
+          <xm:sqref>C10:C110</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="5.38"/>
-    <col customWidth="1" min="9" max="9" width="37.0"/>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
+    <col min="9" max="9" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="8"/>
     </row>
-    <row r="2" ht="30.0" customHeight="1">
+    <row r="2" spans="1:9" ht="30" customHeight="1">
       <c r="A2" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A4" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A5" s="9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1"/>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="9" t="s">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A6" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A7" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="9" t="s">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A8" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="9" t="s">
+    <row r="9" spans="1:9" ht="124" customHeight="1">
+      <c r="B9" s="11" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="9" ht="100.5" customHeight="1">
-      <c r="B9" s="11" t="s">
+      <c r="C9" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="D9" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="E9" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="F9" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="G9" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="H9" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="I9" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A10" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="I9" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="14" t="s">
+      <c r="C10" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="E10" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="15" t="s">
+      <c r="F10" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="G10" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="H10" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H10" s="15" t="s">
-        <v>81</v>
-      </c>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
       <c r="A11" s="9">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="23"/>
+      <c r="F11" s="20"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
       <c r="A12" s="9">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="23"/>
+      <c r="F12" s="20"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
       <c r="A13" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="23"/>
+      <c r="F13" s="20"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
       <c r="A14" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
-      <c r="F14" s="23"/>
+      <c r="F14" s="20"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
       <c r="A15" s="9">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
-      <c r="F15" s="23"/>
+      <c r="F15" s="20"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1">
       <c r="A16" s="9">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
-      <c r="F16" s="23"/>
+      <c r="F16" s="20"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="A17" s="9">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="23"/>
+      <c r="F17" s="20"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="A18" s="9">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
-      <c r="F18" s="23"/>
+      <c r="F18" s="20"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="9">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
-      <c r="F19" s="23"/>
+      <c r="F19" s="20"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
       <c r="A20" s="9">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
-      <c r="F20" s="23"/>
+      <c r="F20" s="20"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
       <c r="A21" s="9">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
-      <c r="F21" s="23"/>
+      <c r="F21" s="20"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1">
       <c r="A22" s="9">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
-      <c r="F22" s="23"/>
+      <c r="F22" s="20"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1">
       <c r="A23" s="9">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
-      <c r="F23" s="23"/>
+      <c r="F23" s="20"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1">
       <c r="A24" s="9">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
-      <c r="F24" s="23"/>
+      <c r="F24" s="20"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1">
       <c r="A25" s="9">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
-      <c r="F25" s="23"/>
+      <c r="F25" s="20"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1">
       <c r="A26" s="9">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
-      <c r="F26" s="23"/>
+      <c r="F26" s="20"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1">
       <c r="A27" s="9">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
-      <c r="F27" s="23"/>
+      <c r="F27" s="20"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1">
       <c r="A28" s="9">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
-      <c r="F28" s="23"/>
+      <c r="F28" s="20"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1">
       <c r="A29" s="9">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
-      <c r="F29" s="23"/>
+      <c r="F29" s="20"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1">
       <c r="A30" s="9">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
-      <c r="F30" s="23"/>
+      <c r="F30" s="20"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1">
       <c r="A31" s="9">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
-      <c r="F31" s="23"/>
+      <c r="F31" s="20"/>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1">
       <c r="A32" s="9">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
-      <c r="F32" s="23"/>
+      <c r="F32" s="20"/>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1">
       <c r="A33" s="9">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
-      <c r="F33" s="23"/>
+      <c r="F33" s="20"/>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1">
       <c r="A34" s="9">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
-      <c r="F34" s="23"/>
+      <c r="F34" s="20"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1">
       <c r="A35" s="9">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
-      <c r="F35" s="23"/>
+      <c r="F35" s="20"/>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1">
       <c r="A36" s="9">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
-      <c r="F36" s="23"/>
+      <c r="F36" s="20"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:9" ht="15.75" customHeight="1">
       <c r="A37" s="9">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
-      <c r="F37" s="23"/>
+      <c r="F37" s="20"/>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1">
       <c r="A38" s="9">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
-      <c r="F38" s="23"/>
+      <c r="F38" s="20"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1">
       <c r="A39" s="9">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
-      <c r="F39" s="23"/>
+      <c r="F39" s="20"/>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:9" ht="15.75" customHeight="1">
       <c r="A40" s="9">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
-      <c r="F40" s="23"/>
+      <c r="F40" s="20"/>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:9" ht="15.75" customHeight="1">
       <c r="A41" s="9">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
-      <c r="F41" s="23"/>
+      <c r="F41" s="20"/>
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:9" ht="15.75" customHeight="1">
       <c r="A42" s="9">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
-      <c r="F42" s="23"/>
+      <c r="F42" s="20"/>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:9" ht="15.75" customHeight="1">
       <c r="A43" s="9">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
-      <c r="F43" s="23"/>
+      <c r="F43" s="20"/>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:9" ht="15.75" customHeight="1">
       <c r="A44" s="9">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
-      <c r="F44" s="23"/>
+      <c r="F44" s="20"/>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:9" ht="15.75" customHeight="1">
       <c r="A45" s="9">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
-      <c r="F45" s="23"/>
+      <c r="F45" s="20"/>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:9" ht="15.75" customHeight="1">
       <c r="A46" s="9">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
-      <c r="F46" s="23"/>
+      <c r="F46" s="20"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:9" ht="15.75" customHeight="1">
       <c r="A47" s="9">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
-      <c r="F47" s="23"/>
+      <c r="F47" s="20"/>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:9" ht="15.75" customHeight="1">
       <c r="A48" s="9">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
-      <c r="F48" s="23"/>
+      <c r="F48" s="20"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:9" ht="15.75" customHeight="1">
       <c r="A49" s="9">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
-      <c r="F49" s="23"/>
+      <c r="F49" s="20"/>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:9" ht="15.75" customHeight="1">
       <c r="A50" s="9">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
-      <c r="F50" s="23"/>
+      <c r="F50" s="20"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:9" ht="15.75" customHeight="1">
       <c r="A51" s="9">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
-      <c r="F51" s="23"/>
+      <c r="F51" s="20"/>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:9" ht="15.75" customHeight="1">
       <c r="A52" s="9">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
-      <c r="F52" s="23"/>
+      <c r="F52" s="20"/>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:9" ht="15.75" customHeight="1">
       <c r="A53" s="9">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
-      <c r="F53" s="23"/>
+      <c r="F53" s="20"/>
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:9" ht="15.75" customHeight="1">
       <c r="A54" s="9">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
-      <c r="F54" s="23"/>
+      <c r="F54" s="20"/>
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:9" ht="15.75" customHeight="1">
       <c r="A55" s="9">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
-      <c r="F55" s="23"/>
+      <c r="F55" s="20"/>
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:9" ht="15.75" customHeight="1">
       <c r="A56" s="9">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
-      <c r="F56" s="23"/>
+      <c r="F56" s="20"/>
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:9" ht="15.75" customHeight="1">
       <c r="A57" s="9">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
-      <c r="F57" s="23"/>
+      <c r="F57" s="20"/>
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:9" ht="15.75" customHeight="1">
       <c r="A58" s="9">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
-      <c r="F58" s="23"/>
+      <c r="F58" s="20"/>
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:9" ht="15.75" customHeight="1">
       <c r="A59" s="9">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
-      <c r="F59" s="23"/>
+      <c r="F59" s="20"/>
       <c r="G59" s="9"/>
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:9" ht="15.75" customHeight="1">
       <c r="A60" s="9">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
-      <c r="F60" s="23"/>
+      <c r="F60" s="20"/>
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:9" ht="15.75" customHeight="1">
       <c r="A61" s="9">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
-      <c r="F61" s="23"/>
+      <c r="F61" s="20"/>
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:9" ht="15.75" customHeight="1">
       <c r="A62" s="9">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
-      <c r="F62" s="23"/>
+      <c r="F62" s="20"/>
       <c r="G62" s="9"/>
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:9" ht="15.75" customHeight="1">
       <c r="A63" s="9">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
-      <c r="F63" s="23"/>
+      <c r="F63" s="20"/>
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:9" ht="15.75" customHeight="1">
       <c r="A64" s="9">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
-      <c r="F64" s="23"/>
+      <c r="F64" s="20"/>
       <c r="G64" s="9"/>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:9" ht="15.75" customHeight="1">
       <c r="A65" s="9">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
-      <c r="F65" s="23"/>
+      <c r="F65" s="20"/>
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:9" ht="15.75" customHeight="1">
       <c r="A66" s="9">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
-      <c r="F66" s="23"/>
+      <c r="F66" s="20"/>
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:9" ht="15.75" customHeight="1">
       <c r="A67" s="9">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
-      <c r="F67" s="23"/>
+      <c r="F67" s="20"/>
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:9" ht="15.75" customHeight="1">
       <c r="A68" s="9">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
-      <c r="F68" s="23"/>
+      <c r="F68" s="20"/>
       <c r="G68" s="9"/>
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:9" ht="15.75" customHeight="1">
       <c r="A69" s="9">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
-      <c r="F69" s="23"/>
+      <c r="F69" s="20"/>
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:9" ht="15.75" customHeight="1">
       <c r="A70" s="9">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
-      <c r="F70" s="23"/>
+      <c r="F70" s="20"/>
       <c r="G70" s="9"/>
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:9" ht="15.75" customHeight="1">
       <c r="A71" s="9">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
-      <c r="F71" s="23"/>
+      <c r="F71" s="20"/>
       <c r="G71" s="9"/>
       <c r="H71" s="9"/>
       <c r="I71" s="9"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:9" ht="15.75" customHeight="1">
       <c r="A72" s="9">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
-      <c r="F72" s="23"/>
+      <c r="F72" s="20"/>
       <c r="G72" s="9"/>
       <c r="H72" s="9"/>
       <c r="I72" s="9"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:9" ht="15.75" customHeight="1">
       <c r="A73" s="9">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
-      <c r="F73" s="23"/>
+      <c r="F73" s="20"/>
       <c r="G73" s="9"/>
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:9" ht="15.75" customHeight="1">
       <c r="A74" s="9">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
-      <c r="F74" s="23"/>
+      <c r="F74" s="20"/>
       <c r="G74" s="9"/>
       <c r="H74" s="9"/>
       <c r="I74" s="9"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:9" ht="15.75" customHeight="1">
       <c r="A75" s="9">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
-      <c r="F75" s="23"/>
+      <c r="F75" s="20"/>
       <c r="G75" s="9"/>
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:9" ht="15.75" customHeight="1">
       <c r="A76" s="9">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
-      <c r="F76" s="23"/>
+      <c r="F76" s="20"/>
       <c r="G76" s="9"/>
       <c r="H76" s="9"/>
       <c r="I76" s="9"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:9" ht="15.75" customHeight="1">
       <c r="A77" s="9">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
-      <c r="F77" s="23"/>
+      <c r="F77" s="20"/>
       <c r="G77" s="9"/>
       <c r="H77" s="9"/>
       <c r="I77" s="9"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:9" ht="15.75" customHeight="1">
       <c r="A78" s="9">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
-      <c r="F78" s="23"/>
+      <c r="F78" s="20"/>
       <c r="G78" s="9"/>
       <c r="H78" s="9"/>
       <c r="I78" s="9"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:9" ht="15.75" customHeight="1">
       <c r="A79" s="9">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
-      <c r="F79" s="23"/>
+      <c r="F79" s="20"/>
       <c r="G79" s="9"/>
       <c r="H79" s="9"/>
       <c r="I79" s="9"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:9" ht="15.75" customHeight="1">
       <c r="A80" s="9">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
       <c r="E80" s="9"/>
-      <c r="F80" s="23"/>
+      <c r="F80" s="20"/>
       <c r="G80" s="9"/>
       <c r="H80" s="9"/>
       <c r="I80" s="9"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:9" ht="15.75" customHeight="1">
       <c r="A81" s="9">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
       <c r="E81" s="9"/>
-      <c r="F81" s="23"/>
+      <c r="F81" s="20"/>
       <c r="G81" s="9"/>
       <c r="H81" s="9"/>
       <c r="I81" s="9"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:9" ht="15.75" customHeight="1">
       <c r="A82" s="9">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
       <c r="E82" s="9"/>
-      <c r="F82" s="23"/>
+      <c r="F82" s="20"/>
       <c r="G82" s="9"/>
       <c r="H82" s="9"/>
       <c r="I82" s="9"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:9" ht="15.75" customHeight="1">
       <c r="A83" s="9">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
       <c r="E83" s="9"/>
-      <c r="F83" s="23"/>
+      <c r="F83" s="20"/>
       <c r="G83" s="9"/>
       <c r="H83" s="9"/>
       <c r="I83" s="9"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:9" ht="15.75" customHeight="1">
       <c r="A84" s="9">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
       <c r="E84" s="9"/>
-      <c r="F84" s="23"/>
+      <c r="F84" s="20"/>
       <c r="G84" s="9"/>
       <c r="H84" s="9"/>
       <c r="I84" s="9"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:9" ht="15.75" customHeight="1">
       <c r="A85" s="9">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
       <c r="E85" s="9"/>
-      <c r="F85" s="23"/>
+      <c r="F85" s="20"/>
       <c r="G85" s="9"/>
       <c r="H85" s="9"/>
       <c r="I85" s="9"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:9" ht="15.75" customHeight="1">
       <c r="A86" s="9">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
       <c r="E86" s="9"/>
-      <c r="F86" s="23"/>
+      <c r="F86" s="20"/>
       <c r="G86" s="9"/>
       <c r="H86" s="9"/>
       <c r="I86" s="9"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:9" ht="15.75" customHeight="1">
       <c r="A87" s="9">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
       <c r="E87" s="9"/>
-      <c r="F87" s="23"/>
+      <c r="F87" s="20"/>
       <c r="G87" s="9"/>
       <c r="H87" s="9"/>
       <c r="I87" s="9"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:9" ht="15.75" customHeight="1">
       <c r="A88" s="9">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
       <c r="E88" s="9"/>
-      <c r="F88" s="23"/>
+      <c r="F88" s="20"/>
       <c r="G88" s="9"/>
       <c r="H88" s="9"/>
       <c r="I88" s="9"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:9" ht="15.75" customHeight="1">
       <c r="A89" s="9">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
       <c r="E89" s="9"/>
-      <c r="F89" s="23"/>
+      <c r="F89" s="20"/>
       <c r="G89" s="9"/>
       <c r="H89" s="9"/>
       <c r="I89" s="9"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:9" ht="15.75" customHeight="1">
       <c r="A90" s="9">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
-      <c r="F90" s="23"/>
+      <c r="F90" s="20"/>
       <c r="G90" s="9"/>
       <c r="H90" s="9"/>
       <c r="I90" s="9"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:9" ht="15.75" customHeight="1">
       <c r="A91" s="9">
-        <v>81.0</v>
+        <v>81</v>
       </c>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
-      <c r="F91" s="23"/>
+      <c r="F91" s="20"/>
       <c r="G91" s="9"/>
       <c r="H91" s="9"/>
       <c r="I91" s="9"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:9" ht="15.75" customHeight="1">
       <c r="A92" s="9">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
-      <c r="F92" s="23"/>
+      <c r="F92" s="20"/>
       <c r="G92" s="9"/>
       <c r="H92" s="9"/>
       <c r="I92" s="9"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:9" ht="15.75" customHeight="1">
       <c r="A93" s="9">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
       <c r="E93" s="9"/>
-      <c r="F93" s="23"/>
+      <c r="F93" s="20"/>
       <c r="G93" s="9"/>
       <c r="H93" s="9"/>
       <c r="I93" s="9"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:9" ht="15.75" customHeight="1">
       <c r="A94" s="9">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>
-      <c r="F94" s="23"/>
+      <c r="F94" s="20"/>
       <c r="G94" s="9"/>
       <c r="H94" s="9"/>
       <c r="I94" s="9"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:9" ht="15.75" customHeight="1">
       <c r="A95" s="9">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
       <c r="E95" s="9"/>
-      <c r="F95" s="23"/>
+      <c r="F95" s="20"/>
       <c r="G95" s="9"/>
       <c r="H95" s="9"/>
       <c r="I95" s="9"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:9" ht="15.75" customHeight="1">
       <c r="A96" s="9">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
       <c r="E96" s="9"/>
-      <c r="F96" s="23"/>
+      <c r="F96" s="20"/>
       <c r="G96" s="9"/>
       <c r="H96" s="9"/>
       <c r="I96" s="9"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:9" ht="15.75" customHeight="1">
       <c r="A97" s="9">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
       <c r="E97" s="9"/>
-      <c r="F97" s="23"/>
+      <c r="F97" s="20"/>
       <c r="G97" s="9"/>
       <c r="H97" s="9"/>
       <c r="I97" s="9"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:9" ht="15.75" customHeight="1">
       <c r="A98" s="9">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
       <c r="E98" s="9"/>
-      <c r="F98" s="23"/>
+      <c r="F98" s="20"/>
       <c r="G98" s="9"/>
       <c r="H98" s="9"/>
       <c r="I98" s="9"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:9" ht="15.75" customHeight="1">
       <c r="A99" s="9">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
       <c r="E99" s="9"/>
-      <c r="F99" s="23"/>
+      <c r="F99" s="20"/>
       <c r="G99" s="9"/>
       <c r="H99" s="9"/>
       <c r="I99" s="9"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:9" ht="15.75" customHeight="1">
       <c r="A100" s="9">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
-      <c r="F100" s="23"/>
+      <c r="F100" s="20"/>
       <c r="G100" s="9"/>
       <c r="H100" s="9"/>
       <c r="I100" s="9"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:9" ht="15.75" customHeight="1">
       <c r="A101" s="9">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
       <c r="E101" s="9"/>
-      <c r="F101" s="23"/>
+      <c r="F101" s="20"/>
       <c r="G101" s="9"/>
       <c r="H101" s="9"/>
       <c r="I101" s="9"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:9" ht="15.75" customHeight="1">
       <c r="A102" s="9">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
       <c r="E102" s="9"/>
-      <c r="F102" s="23"/>
+      <c r="F102" s="20"/>
       <c r="G102" s="9"/>
       <c r="H102" s="9"/>
       <c r="I102" s="9"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:9" ht="15.75" customHeight="1">
       <c r="A103" s="9">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
-      <c r="F103" s="23"/>
+      <c r="F103" s="20"/>
       <c r="G103" s="9"/>
       <c r="H103" s="9"/>
       <c r="I103" s="9"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:9" ht="15.75" customHeight="1">
       <c r="A104" s="9">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
       <c r="E104" s="9"/>
-      <c r="F104" s="23"/>
+      <c r="F104" s="20"/>
       <c r="G104" s="9"/>
       <c r="H104" s="9"/>
       <c r="I104" s="9"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:9" ht="15.75" customHeight="1">
       <c r="A105" s="9">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
       <c r="E105" s="9"/>
-      <c r="F105" s="23"/>
+      <c r="F105" s="20"/>
       <c r="G105" s="9"/>
       <c r="H105" s="9"/>
       <c r="I105" s="9"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:9" ht="15.75" customHeight="1">
       <c r="A106" s="9">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
       <c r="E106" s="9"/>
-      <c r="F106" s="23"/>
+      <c r="F106" s="20"/>
       <c r="G106" s="9"/>
       <c r="H106" s="9"/>
       <c r="I106" s="9"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:9" ht="15.75" customHeight="1">
       <c r="A107" s="9">
-        <v>97.0</v>
+        <v>97</v>
       </c>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
       <c r="E107" s="9"/>
-      <c r="F107" s="23"/>
+      <c r="F107" s="20"/>
       <c r="G107" s="9"/>
       <c r="H107" s="9"/>
       <c r="I107" s="9"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:9" ht="15.75" customHeight="1">
       <c r="A108" s="9">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
       <c r="E108" s="9"/>
-      <c r="F108" s="23"/>
+      <c r="F108" s="20"/>
       <c r="G108" s="9"/>
       <c r="H108" s="9"/>
       <c r="I108" s="9"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:9" ht="15.75" customHeight="1">
       <c r="A109" s="9">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
       <c r="E109" s="9"/>
-      <c r="F109" s="23"/>
+      <c r="F109" s="20"/>
       <c r="G109" s="9"/>
       <c r="H109" s="9"/>
       <c r="I109" s="9"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:9" ht="15.75" customHeight="1">
       <c r="A110" s="9">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
       <c r="E110" s="9"/>
-      <c r="F110" s="23"/>
+      <c r="F110" s="20"/>
       <c r="G110" s="9"/>
       <c r="H110" s="9"/>
       <c r="I110" s="9"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:9" ht="15.75" customHeight="1">
       <c r="A111" s="9">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
       <c r="E111" s="9"/>
-      <c r="F111" s="23"/>
+      <c r="F111" s="20"/>
       <c r="G111" s="9"/>
       <c r="H111" s="9"/>
       <c r="I111" s="9"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:9" ht="15.75" customHeight="1">
       <c r="A112" s="9">
-        <v>102.0</v>
+        <v>102</v>
       </c>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
       <c r="E112" s="9"/>
-      <c r="F112" s="23"/>
+      <c r="F112" s="20"/>
       <c r="G112" s="9"/>
       <c r="H112" s="9"/>
       <c r="I112" s="9"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:9" ht="15.75" customHeight="1">
       <c r="A113" s="9">
-        <v>103.0</v>
+        <v>103</v>
       </c>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
       <c r="E113" s="9"/>
-      <c r="F113" s="23"/>
+      <c r="F113" s="20"/>
       <c r="G113" s="9"/>
       <c r="H113" s="9"/>
       <c r="I113" s="9"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:9" ht="15.75" customHeight="1">
       <c r="A114" s="9">
-        <v>104.0</v>
+        <v>104</v>
       </c>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
       <c r="E114" s="9"/>
-      <c r="F114" s="23"/>
+      <c r="F114" s="20"/>
       <c r="G114" s="9"/>
       <c r="H114" s="9"/>
       <c r="I114" s="9"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:9" ht="15.75" customHeight="1">
       <c r="A115" s="9">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
-      <c r="F115" s="23"/>
+      <c r="F115" s="20"/>
       <c r="G115" s="9"/>
       <c r="H115" s="9"/>
       <c r="I115" s="9"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:9" ht="15.75" customHeight="1">
       <c r="A116" s="9">
-        <v>106.0</v>
+        <v>106</v>
       </c>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
       <c r="E116" s="9"/>
-      <c r="F116" s="23"/>
+      <c r="F116" s="20"/>
       <c r="G116" s="9"/>
       <c r="H116" s="9"/>
       <c r="I116" s="9"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:9" ht="15.75" customHeight="1">
       <c r="A117" s="9">
-        <v>107.0</v>
+        <v>107</v>
       </c>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
       <c r="E117" s="9"/>
-      <c r="F117" s="23"/>
+      <c r="F117" s="20"/>
       <c r="G117" s="9"/>
       <c r="H117" s="9"/>
       <c r="I117" s="9"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:9" ht="15.75" customHeight="1">
       <c r="A118" s="9">
-        <v>108.0</v>
+        <v>108</v>
       </c>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
       <c r="E118" s="9"/>
-      <c r="F118" s="23"/>
+      <c r="F118" s="20"/>
       <c r="G118" s="9"/>
       <c r="H118" s="9"/>
       <c r="I118" s="9"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:9" ht="15.75" customHeight="1">
       <c r="A119" s="9">
-        <v>109.0</v>
+        <v>109</v>
       </c>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
       <c r="E119" s="9"/>
-      <c r="F119" s="23"/>
+      <c r="F119" s="20"/>
       <c r="G119" s="9"/>
       <c r="H119" s="9"/>
       <c r="I119" s="9"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:9" ht="15.75" customHeight="1">
       <c r="A120" s="9">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
       <c r="E120" s="9"/>
-      <c r="F120" s="23"/>
+      <c r="F120" s="20"/>
       <c r="G120" s="9"/>
       <c r="H120" s="9"/>
       <c r="I120" s="9"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:9" ht="15.75" customHeight="1">
       <c r="A121" s="9">
-        <v>111.0</v>
+        <v>111</v>
       </c>
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
       <c r="E121" s="9"/>
-      <c r="F121" s="23"/>
+      <c r="F121" s="20"/>
       <c r="G121" s="9"/>
       <c r="H121" s="9"/>
       <c r="I121" s="9"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:9" ht="15.75" customHeight="1">
       <c r="A122" s="9">
-        <v>112.0</v>
+        <v>112</v>
       </c>
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
       <c r="E122" s="9"/>
-      <c r="F122" s="23"/>
+      <c r="F122" s="20"/>
       <c r="G122" s="9"/>
       <c r="H122" s="9"/>
       <c r="I122" s="9"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:9" ht="15.75" customHeight="1">
       <c r="A123" s="9">
-        <v>113.0</v>
+        <v>113</v>
       </c>
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
       <c r="E123" s="9"/>
-      <c r="F123" s="23"/>
+      <c r="F123" s="20"/>
       <c r="G123" s="9"/>
       <c r="H123" s="9"/>
       <c r="I123" s="9"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:9" ht="15.75" customHeight="1">
       <c r="A124" s="9">
-        <v>114.0</v>
+        <v>114</v>
       </c>
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
       <c r="E124" s="9"/>
-      <c r="F124" s="23"/>
+      <c r="F124" s="20"/>
       <c r="G124" s="9"/>
       <c r="H124" s="9"/>
       <c r="I124" s="9"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:9" ht="15.75" customHeight="1">
       <c r="A125" s="9">
-        <v>115.0</v>
+        <v>115</v>
       </c>
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
       <c r="E125" s="9"/>
-      <c r="F125" s="23"/>
+      <c r="F125" s="20"/>
       <c r="G125" s="9"/>
       <c r="H125" s="9"/>
       <c r="I125" s="9"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:9" ht="15.75" customHeight="1">
       <c r="A126" s="9">
-        <v>116.0</v>
+        <v>116</v>
       </c>
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
       <c r="E126" s="9"/>
-      <c r="F126" s="23"/>
+      <c r="F126" s="20"/>
       <c r="G126" s="9"/>
       <c r="H126" s="9"/>
       <c r="I126" s="9"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:9" ht="15.75" customHeight="1">
       <c r="A127" s="9">
-        <v>117.0</v>
+        <v>117</v>
       </c>
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
       <c r="E127" s="9"/>
-      <c r="F127" s="23"/>
+      <c r="F127" s="20"/>
       <c r="G127" s="9"/>
       <c r="H127" s="9"/>
       <c r="I127" s="9"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:9" ht="15.75" customHeight="1">
       <c r="A128" s="9">
-        <v>118.0</v>
+        <v>118</v>
       </c>
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
       <c r="E128" s="9"/>
-      <c r="F128" s="23"/>
+      <c r="F128" s="20"/>
       <c r="G128" s="9"/>
       <c r="H128" s="9"/>
       <c r="I128" s="9"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:9" ht="15.75" customHeight="1">
       <c r="A129" s="9">
-        <v>119.0</v>
+        <v>119</v>
       </c>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
       <c r="E129" s="9"/>
-      <c r="F129" s="23"/>
+      <c r="F129" s="20"/>
       <c r="G129" s="9"/>
       <c r="H129" s="9"/>
       <c r="I129" s="9"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:9" ht="15.75" customHeight="1">
       <c r="A130" s="9">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
       <c r="D130" s="9"/>
       <c r="E130" s="9"/>
-      <c r="F130" s="23"/>
+      <c r="F130" s="20"/>
       <c r="G130" s="9"/>
       <c r="H130" s="9"/>
       <c r="I130" s="9"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:9" ht="15.75" customHeight="1">
       <c r="A131" s="9">
-        <v>121.0</v>
+        <v>121</v>
       </c>
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
       <c r="D131" s="9"/>
       <c r="E131" s="9"/>
-      <c r="F131" s="23"/>
+      <c r="F131" s="20"/>
       <c r="G131" s="9"/>
       <c r="H131" s="9"/>
       <c r="I131" s="9"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:9" ht="15.75" customHeight="1">
       <c r="A132" s="9">
-        <v>122.0</v>
+        <v>122</v>
       </c>
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
       <c r="E132" s="9"/>
-      <c r="F132" s="23"/>
+      <c r="F132" s="20"/>
       <c r="G132" s="9"/>
       <c r="H132" s="9"/>
       <c r="I132" s="9"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:9" ht="15.75" customHeight="1">
       <c r="A133" s="9">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="B133" s="9"/>
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
       <c r="E133" s="9"/>
-      <c r="F133" s="23"/>
+      <c r="F133" s="20"/>
       <c r="G133" s="9"/>
       <c r="H133" s="9"/>
       <c r="I133" s="9"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:9" ht="15.75" customHeight="1">
       <c r="A134" s="9">
-        <v>124.0</v>
+        <v>124</v>
       </c>
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
       <c r="E134" s="9"/>
-      <c r="F134" s="23"/>
+      <c r="F134" s="20"/>
       <c r="G134" s="9"/>
       <c r="H134" s="9"/>
       <c r="I134" s="9"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:9" ht="15.75" customHeight="1">
       <c r="A135" s="9">
-        <v>125.0</v>
+        <v>125</v>
       </c>
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
       <c r="E135" s="9"/>
-      <c r="F135" s="23"/>
+      <c r="F135" s="20"/>
       <c r="G135" s="9"/>
       <c r="H135" s="9"/>
       <c r="I135" s="9"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:9" ht="15.75" customHeight="1">
       <c r="A136" s="9">
-        <v>126.0</v>
+        <v>126</v>
       </c>
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
       <c r="E136" s="9"/>
-      <c r="F136" s="23"/>
+      <c r="F136" s="20"/>
       <c r="G136" s="9"/>
       <c r="H136" s="9"/>
       <c r="I136" s="9"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:9" ht="15.75" customHeight="1">
       <c r="A137" s="9">
-        <v>127.0</v>
+        <v>127</v>
       </c>
       <c r="B137" s="9"/>
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
       <c r="E137" s="9"/>
-      <c r="F137" s="23"/>
+      <c r="F137" s="20"/>
       <c r="G137" s="9"/>
       <c r="H137" s="9"/>
       <c r="I137" s="9"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:9" ht="15.75" customHeight="1">
       <c r="A138" s="9">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
       <c r="D138" s="9"/>
       <c r="E138" s="9"/>
-      <c r="F138" s="23"/>
+      <c r="F138" s="20"/>
       <c r="G138" s="9"/>
       <c r="H138" s="9"/>
       <c r="I138" s="9"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:9" ht="15.75" customHeight="1">
       <c r="A139" s="9">
-        <v>129.0</v>
+        <v>129</v>
       </c>
       <c r="B139" s="9"/>
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
-      <c r="F139" s="23"/>
+      <c r="F139" s="20"/>
       <c r="G139" s="9"/>
       <c r="H139" s="9"/>
       <c r="I139" s="9"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:9" ht="15.75" customHeight="1">
       <c r="A140" s="9">
-        <v>130.0</v>
+        <v>130</v>
       </c>
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
       <c r="E140" s="9"/>
-      <c r="F140" s="23"/>
+      <c r="F140" s="20"/>
       <c r="G140" s="9"/>
       <c r="H140" s="9"/>
       <c r="I140" s="9"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:9" ht="15.75" customHeight="1">
       <c r="A141" s="9">
-        <v>131.0</v>
+        <v>131</v>
       </c>
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
       <c r="E141" s="9"/>
-      <c r="F141" s="23"/>
+      <c r="F141" s="20"/>
       <c r="G141" s="9"/>
       <c r="H141" s="9"/>
       <c r="I141" s="9"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:9" ht="15.75" customHeight="1">
       <c r="A142" s="9">
-        <v>132.0</v>
+        <v>132</v>
       </c>
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
       <c r="E142" s="9"/>
-      <c r="F142" s="23"/>
+      <c r="F142" s="20"/>
       <c r="G142" s="9"/>
       <c r="H142" s="9"/>
       <c r="I142" s="9"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:9" ht="15.75" customHeight="1">
       <c r="A143" s="9">
-        <v>133.0</v>
+        <v>133</v>
       </c>
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
       <c r="E143" s="9"/>
-      <c r="F143" s="23"/>
+      <c r="F143" s="20"/>
       <c r="G143" s="9"/>
       <c r="H143" s="9"/>
       <c r="I143" s="9"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:9" ht="15.75" customHeight="1">
       <c r="A144" s="9">
-        <v>134.0</v>
+        <v>134</v>
       </c>
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
       <c r="D144" s="9"/>
       <c r="E144" s="9"/>
-      <c r="F144" s="23"/>
+      <c r="F144" s="20"/>
       <c r="G144" s="9"/>
       <c r="H144" s="9"/>
       <c r="I144" s="9"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:9" ht="15.75" customHeight="1">
       <c r="A145" s="9">
-        <v>135.0</v>
+        <v>135</v>
       </c>
       <c r="B145" s="9"/>
       <c r="C145" s="9"/>
       <c r="D145" s="9"/>
       <c r="E145" s="9"/>
-      <c r="F145" s="23"/>
+      <c r="F145" s="20"/>
       <c r="G145" s="9"/>
       <c r="H145" s="9"/>
       <c r="I145" s="9"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:9" ht="15.75" customHeight="1">
       <c r="A146" s="9">
-        <v>136.0</v>
+        <v>136</v>
       </c>
       <c r="B146" s="9"/>
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
       <c r="E146" s="9"/>
-      <c r="F146" s="23"/>
+      <c r="F146" s="20"/>
       <c r="G146" s="9"/>
       <c r="H146" s="9"/>
       <c r="I146" s="9"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:9" ht="15.75" customHeight="1">
       <c r="A147" s="9">
-        <v>137.0</v>
+        <v>137</v>
       </c>
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
       <c r="D147" s="9"/>
       <c r="E147" s="9"/>
-      <c r="F147" s="23"/>
+      <c r="F147" s="20"/>
       <c r="G147" s="9"/>
       <c r="H147" s="9"/>
       <c r="I147" s="9"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:9" ht="15.75" customHeight="1">
       <c r="A148" s="9">
-        <v>138.0</v>
+        <v>138</v>
       </c>
       <c r="B148" s="9"/>
       <c r="C148" s="9"/>
       <c r="D148" s="9"/>
       <c r="E148" s="9"/>
-      <c r="F148" s="23"/>
+      <c r="F148" s="20"/>
       <c r="G148" s="9"/>
       <c r="H148" s="9"/>
       <c r="I148" s="9"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:9" ht="15.75" customHeight="1">
       <c r="A149" s="9">
-        <v>139.0</v>
+        <v>139</v>
       </c>
       <c r="B149" s="9"/>
       <c r="C149" s="9"/>
       <c r="D149" s="9"/>
       <c r="E149" s="9"/>
-      <c r="F149" s="23"/>
+      <c r="F149" s="20"/>
       <c r="G149" s="9"/>
       <c r="H149" s="9"/>
       <c r="I149" s="9"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:9" ht="15.75" customHeight="1">
       <c r="A150" s="9">
-        <v>140.0</v>
+        <v>140</v>
       </c>
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
       <c r="D150" s="9"/>
       <c r="E150" s="9"/>
-      <c r="F150" s="23"/>
+      <c r="F150" s="20"/>
       <c r="G150" s="9"/>
       <c r="H150" s="9"/>
       <c r="I150" s="9"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:9" ht="15.75" customHeight="1">
       <c r="A151" s="9">
-        <v>141.0</v>
+        <v>141</v>
       </c>
       <c r="B151" s="9"/>
       <c r="C151" s="9"/>
       <c r="D151" s="9"/>
       <c r="E151" s="9"/>
-      <c r="F151" s="23"/>
+      <c r="F151" s="20"/>
       <c r="G151" s="9"/>
       <c r="H151" s="9"/>
       <c r="I151" s="9"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:9" ht="15.75" customHeight="1">
       <c r="A152" s="9">
-        <v>142.0</v>
+        <v>142</v>
       </c>
       <c r="B152" s="9"/>
       <c r="C152" s="9"/>
       <c r="D152" s="9"/>
       <c r="E152" s="9"/>
-      <c r="F152" s="23"/>
+      <c r="F152" s="20"/>
       <c r="G152" s="9"/>
       <c r="H152" s="9"/>
       <c r="I152" s="9"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:9" ht="15.75" customHeight="1">
       <c r="A153" s="9">
-        <v>143.0</v>
+        <v>143</v>
       </c>
       <c r="B153" s="9"/>
       <c r="C153" s="9"/>
       <c r="D153" s="9"/>
       <c r="E153" s="9"/>
-      <c r="F153" s="23"/>
+      <c r="F153" s="20"/>
       <c r="G153" s="9"/>
       <c r="H153" s="9"/>
       <c r="I153" s="9"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:9" ht="15.75" customHeight="1">
       <c r="A154" s="9">
-        <v>144.0</v>
+        <v>144</v>
       </c>
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
       <c r="D154" s="9"/>
       <c r="E154" s="9"/>
-      <c r="F154" s="23"/>
+      <c r="F154" s="20"/>
       <c r="G154" s="9"/>
       <c r="H154" s="9"/>
       <c r="I154" s="9"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:9" ht="15.75" customHeight="1">
       <c r="A155" s="9">
-        <v>145.0</v>
+        <v>145</v>
       </c>
       <c r="B155" s="9"/>
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
       <c r="E155" s="9"/>
-      <c r="F155" s="23"/>
+      <c r="F155" s="20"/>
       <c r="G155" s="9"/>
       <c r="H155" s="9"/>
       <c r="I155" s="9"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:9" ht="15.75" customHeight="1">
       <c r="A156" s="9">
-        <v>146.0</v>
+        <v>146</v>
       </c>
       <c r="B156" s="9"/>
       <c r="C156" s="9"/>
       <c r="D156" s="9"/>
       <c r="E156" s="9"/>
-      <c r="F156" s="23"/>
+      <c r="F156" s="20"/>
       <c r="G156" s="9"/>
       <c r="H156" s="9"/>
       <c r="I156" s="9"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:9" ht="15.75" customHeight="1">
       <c r="A157" s="9">
-        <v>147.0</v>
+        <v>147</v>
       </c>
       <c r="B157" s="9"/>
       <c r="C157" s="9"/>
       <c r="D157" s="9"/>
       <c r="E157" s="9"/>
-      <c r="F157" s="23"/>
+      <c r="F157" s="20"/>
       <c r="G157" s="9"/>
       <c r="H157" s="9"/>
       <c r="I157" s="9"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:9" ht="15.75" customHeight="1">
       <c r="A158" s="9">
-        <v>148.0</v>
+        <v>148</v>
       </c>
       <c r="B158" s="9"/>
       <c r="C158" s="9"/>
       <c r="D158" s="9"/>
       <c r="E158" s="9"/>
-      <c r="F158" s="23"/>
+      <c r="F158" s="20"/>
       <c r="G158" s="9"/>
       <c r="H158" s="9"/>
       <c r="I158" s="9"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:9" ht="15.75" customHeight="1">
       <c r="A159" s="9">
-        <v>149.0</v>
+        <v>149</v>
       </c>
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
       <c r="D159" s="9"/>
       <c r="E159" s="9"/>
-      <c r="F159" s="23"/>
+      <c r="F159" s="20"/>
       <c r="G159" s="9"/>
       <c r="H159" s="9"/>
       <c r="I159" s="9"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:9" ht="15.75" customHeight="1">
       <c r="A160" s="9">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="B160" s="9"/>
       <c r="C160" s="9"/>
       <c r="D160" s="9"/>
       <c r="E160" s="9"/>
-      <c r="F160" s="23"/>
+      <c r="F160" s="20"/>
       <c r="G160" s="9"/>
       <c r="H160" s="9"/>
       <c r="I160" s="9"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:9" ht="15.75" customHeight="1">
       <c r="A161" s="9">
-        <v>151.0</v>
+        <v>151</v>
       </c>
       <c r="B161" s="9"/>
       <c r="C161" s="9"/>
       <c r="D161" s="9"/>
       <c r="E161" s="9"/>
-      <c r="F161" s="23"/>
+      <c r="F161" s="20"/>
       <c r="G161" s="9"/>
       <c r="H161" s="9"/>
       <c r="I161" s="9"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:9" ht="15.75" customHeight="1">
       <c r="A162" s="9">
-        <v>152.0</v>
+        <v>152</v>
       </c>
       <c r="B162" s="9"/>
       <c r="C162" s="9"/>
       <c r="D162" s="9"/>
       <c r="E162" s="9"/>
-      <c r="F162" s="23"/>
+      <c r="F162" s="20"/>
       <c r="G162" s="9"/>
       <c r="H162" s="9"/>
       <c r="I162" s="9"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:9" ht="15.75" customHeight="1">
       <c r="A163" s="9">
-        <v>153.0</v>
+        <v>153</v>
       </c>
       <c r="B163" s="9"/>
       <c r="C163" s="9"/>
       <c r="D163" s="9"/>
       <c r="E163" s="9"/>
-      <c r="F163" s="23"/>
+      <c r="F163" s="20"/>
       <c r="G163" s="9"/>
       <c r="H163" s="9"/>
       <c r="I163" s="9"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:9" ht="15.75" customHeight="1">
       <c r="A164" s="9">
-        <v>154.0</v>
+        <v>154</v>
       </c>
       <c r="B164" s="9"/>
       <c r="C164" s="9"/>
       <c r="D164" s="9"/>
       <c r="E164" s="9"/>
-      <c r="F164" s="23"/>
+      <c r="F164" s="20"/>
       <c r="G164" s="9"/>
       <c r="H164" s="9"/>
       <c r="I164" s="9"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:9" ht="15.75" customHeight="1">
       <c r="A165" s="9">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="B165" s="9"/>
       <c r="C165" s="9"/>
       <c r="D165" s="9"/>
       <c r="E165" s="9"/>
-      <c r="F165" s="23"/>
+      <c r="F165" s="20"/>
       <c r="G165" s="9"/>
       <c r="H165" s="9"/>
       <c r="I165" s="9"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:9" ht="15.75" customHeight="1">
       <c r="A166" s="9">
-        <v>156.0</v>
+        <v>156</v>
       </c>
       <c r="B166" s="9"/>
       <c r="C166" s="9"/>
       <c r="D166" s="9"/>
       <c r="E166" s="9"/>
-      <c r="F166" s="23"/>
+      <c r="F166" s="20"/>
       <c r="G166" s="9"/>
       <c r="H166" s="9"/>
       <c r="I166" s="9"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:9" ht="15.75" customHeight="1">
       <c r="A167" s="9">
-        <v>157.0</v>
+        <v>157</v>
       </c>
       <c r="B167" s="9"/>
       <c r="C167" s="9"/>
       <c r="D167" s="9"/>
       <c r="E167" s="9"/>
-      <c r="F167" s="23"/>
+      <c r="F167" s="20"/>
       <c r="G167" s="9"/>
       <c r="H167" s="9"/>
       <c r="I167" s="9"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:9" ht="15.75" customHeight="1">
       <c r="A168" s="9">
-        <v>158.0</v>
+        <v>158</v>
       </c>
       <c r="B168" s="9"/>
       <c r="C168" s="9"/>
       <c r="D168" s="9"/>
       <c r="E168" s="9"/>
-      <c r="F168" s="23"/>
+      <c r="F168" s="20"/>
       <c r="G168" s="9"/>
       <c r="H168" s="9"/>
       <c r="I168" s="9"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:9" ht="15.75" customHeight="1">
       <c r="A169" s="9">
-        <v>159.0</v>
+        <v>159</v>
       </c>
       <c r="B169" s="9"/>
       <c r="C169" s="9"/>
       <c r="D169" s="9"/>
       <c r="E169" s="9"/>
-      <c r="F169" s="23"/>
+      <c r="F169" s="20"/>
       <c r="G169" s="9"/>
       <c r="H169" s="9"/>
       <c r="I169" s="9"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:9" ht="15.75" customHeight="1">
       <c r="A170" s="9">
-        <v>160.0</v>
+        <v>160</v>
       </c>
       <c r="B170" s="9"/>
       <c r="C170" s="9"/>
       <c r="D170" s="9"/>
       <c r="E170" s="9"/>
-      <c r="F170" s="23"/>
+      <c r="F170" s="20"/>
       <c r="G170" s="9"/>
       <c r="H170" s="9"/>
       <c r="I170" s="9"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:9" ht="15.75" customHeight="1">
       <c r="A171" s="9">
-        <v>161.0</v>
+        <v>161</v>
       </c>
       <c r="B171" s="9"/>
       <c r="C171" s="9"/>
       <c r="D171" s="9"/>
       <c r="E171" s="9"/>
-      <c r="F171" s="23"/>
+      <c r="F171" s="20"/>
       <c r="G171" s="9"/>
       <c r="H171" s="9"/>
       <c r="I171" s="9"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:9" ht="15.75" customHeight="1">
       <c r="A172" s="9">
-        <v>162.0</v>
+        <v>162</v>
       </c>
       <c r="B172" s="9"/>
       <c r="C172" s="9"/>
       <c r="D172" s="9"/>
       <c r="E172" s="9"/>
-      <c r="F172" s="23"/>
+      <c r="F172" s="20"/>
       <c r="G172" s="9"/>
       <c r="H172" s="9"/>
       <c r="I172" s="9"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:9" ht="15.75" customHeight="1">
       <c r="A173" s="9">
-        <v>163.0</v>
+        <v>163</v>
       </c>
       <c r="B173" s="9"/>
       <c r="C173" s="9"/>
       <c r="D173" s="9"/>
       <c r="E173" s="9"/>
-      <c r="F173" s="23"/>
+      <c r="F173" s="20"/>
       <c r="G173" s="9"/>
       <c r="H173" s="9"/>
       <c r="I173" s="9"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:9" ht="15.75" customHeight="1">
       <c r="A174" s="9">
-        <v>164.0</v>
+        <v>164</v>
       </c>
       <c r="B174" s="9"/>
       <c r="C174" s="9"/>
       <c r="D174" s="9"/>
       <c r="E174" s="9"/>
-      <c r="F174" s="23"/>
+      <c r="F174" s="20"/>
       <c r="G174" s="9"/>
       <c r="H174" s="9"/>
       <c r="I174" s="9"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:9" ht="15.75" customHeight="1">
       <c r="A175" s="9">
-        <v>165.0</v>
+        <v>165</v>
       </c>
       <c r="B175" s="9"/>
       <c r="C175" s="9"/>
       <c r="D175" s="9"/>
       <c r="E175" s="9"/>
-      <c r="F175" s="23"/>
+      <c r="F175" s="20"/>
       <c r="G175" s="9"/>
       <c r="H175" s="9"/>
       <c r="I175" s="9"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:9" ht="15.75" customHeight="1">
       <c r="A176" s="9">
-        <v>166.0</v>
+        <v>166</v>
       </c>
       <c r="B176" s="9"/>
       <c r="C176" s="9"/>
       <c r="D176" s="9"/>
       <c r="E176" s="9"/>
-      <c r="F176" s="23"/>
+      <c r="F176" s="20"/>
       <c r="G176" s="9"/>
       <c r="H176" s="9"/>
       <c r="I176" s="9"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:9" ht="15.75" customHeight="1">
       <c r="A177" s="9">
-        <v>167.0</v>
+        <v>167</v>
       </c>
       <c r="B177" s="9"/>
       <c r="C177" s="9"/>
       <c r="D177" s="9"/>
       <c r="E177" s="9"/>
-      <c r="F177" s="23"/>
+      <c r="F177" s="20"/>
       <c r="G177" s="9"/>
       <c r="H177" s="9"/>
       <c r="I177" s="9"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:9" ht="15.75" customHeight="1">
       <c r="A178" s="9">
-        <v>168.0</v>
+        <v>168</v>
       </c>
       <c r="B178" s="9"/>
       <c r="C178" s="9"/>
       <c r="D178" s="9"/>
       <c r="E178" s="9"/>
-      <c r="F178" s="23"/>
+      <c r="F178" s="20"/>
       <c r="G178" s="9"/>
       <c r="H178" s="9"/>
       <c r="I178" s="9"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:9" ht="15.75" customHeight="1">
       <c r="A179" s="9">
-        <v>169.0</v>
+        <v>169</v>
       </c>
       <c r="B179" s="9"/>
       <c r="C179" s="9"/>
       <c r="D179" s="9"/>
       <c r="E179" s="9"/>
-      <c r="F179" s="23"/>
+      <c r="F179" s="20"/>
       <c r="G179" s="9"/>
       <c r="H179" s="9"/>
       <c r="I179" s="9"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:9" ht="15.75" customHeight="1">
       <c r="A180" s="9">
-        <v>170.0</v>
+        <v>170</v>
       </c>
       <c r="B180" s="9"/>
       <c r="C180" s="9"/>
       <c r="D180" s="9"/>
       <c r="E180" s="9"/>
-      <c r="F180" s="23"/>
+      <c r="F180" s="20"/>
       <c r="G180" s="9"/>
       <c r="H180" s="9"/>
       <c r="I180" s="9"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:9" ht="15.75" customHeight="1">
       <c r="A181" s="9">
-        <v>171.0</v>
+        <v>171</v>
       </c>
       <c r="B181" s="9"/>
       <c r="C181" s="9"/>
       <c r="D181" s="9"/>
       <c r="E181" s="9"/>
-      <c r="F181" s="23"/>
+      <c r="F181" s="20"/>
       <c r="G181" s="9"/>
       <c r="H181" s="9"/>
       <c r="I181" s="9"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:9" ht="15.75" customHeight="1">
       <c r="A182" s="9">
-        <v>172.0</v>
+        <v>172</v>
       </c>
       <c r="B182" s="9"/>
       <c r="C182" s="9"/>
       <c r="D182" s="9"/>
       <c r="E182" s="9"/>
-      <c r="F182" s="23"/>
+      <c r="F182" s="20"/>
       <c r="G182" s="9"/>
       <c r="H182" s="9"/>
       <c r="I182" s="9"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:9" ht="15.75" customHeight="1">
       <c r="A183" s="9">
-        <v>173.0</v>
+        <v>173</v>
       </c>
       <c r="B183" s="9"/>
       <c r="C183" s="9"/>
       <c r="D183" s="9"/>
       <c r="E183" s="9"/>
-      <c r="F183" s="23"/>
+      <c r="F183" s="20"/>
       <c r="G183" s="9"/>
       <c r="H183" s="9"/>
       <c r="I183" s="9"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:9" ht="15.75" customHeight="1">
       <c r="A184" s="9">
-        <v>174.0</v>
+        <v>174</v>
       </c>
       <c r="B184" s="9"/>
       <c r="C184" s="9"/>
       <c r="D184" s="9"/>
       <c r="E184" s="9"/>
-      <c r="F184" s="23"/>
+      <c r="F184" s="20"/>
       <c r="G184" s="9"/>
       <c r="H184" s="9"/>
       <c r="I184" s="9"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:9" ht="15.75" customHeight="1">
       <c r="A185" s="9">
-        <v>175.0</v>
+        <v>175</v>
       </c>
       <c r="B185" s="9"/>
       <c r="C185" s="9"/>
       <c r="D185" s="9"/>
       <c r="E185" s="9"/>
-      <c r="F185" s="23"/>
+      <c r="F185" s="20"/>
       <c r="G185" s="9"/>
       <c r="H185" s="9"/>
       <c r="I185" s="9"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:9" ht="15.75" customHeight="1">
       <c r="A186" s="9">
-        <v>176.0</v>
+        <v>176</v>
       </c>
       <c r="B186" s="9"/>
       <c r="C186" s="9"/>
       <c r="D186" s="9"/>
       <c r="E186" s="9"/>
-      <c r="F186" s="23"/>
+      <c r="F186" s="20"/>
       <c r="G186" s="9"/>
       <c r="H186" s="9"/>
       <c r="I186" s="9"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:9" ht="15.75" customHeight="1">
       <c r="A187" s="9">
-        <v>177.0</v>
+        <v>177</v>
       </c>
       <c r="B187" s="9"/>
       <c r="C187" s="9"/>
       <c r="D187" s="9"/>
       <c r="E187" s="9"/>
-      <c r="F187" s="23"/>
+      <c r="F187" s="20"/>
       <c r="G187" s="9"/>
       <c r="H187" s="9"/>
       <c r="I187" s="9"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:9" ht="15.75" customHeight="1">
       <c r="A188" s="9">
-        <v>178.0</v>
+        <v>178</v>
       </c>
       <c r="B188" s="9"/>
       <c r="C188" s="9"/>
       <c r="D188" s="9"/>
       <c r="E188" s="9"/>
-      <c r="F188" s="23"/>
+      <c r="F188" s="20"/>
       <c r="G188" s="9"/>
       <c r="H188" s="9"/>
       <c r="I188" s="9"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:9" ht="15.75" customHeight="1">
       <c r="A189" s="9">
-        <v>179.0</v>
+        <v>179</v>
       </c>
       <c r="B189" s="9"/>
       <c r="C189" s="9"/>
       <c r="D189" s="9"/>
       <c r="E189" s="9"/>
-      <c r="F189" s="23"/>
+      <c r="F189" s="20"/>
       <c r="G189" s="9"/>
       <c r="H189" s="9"/>
       <c r="I189" s="9"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:9" ht="15.75" customHeight="1">
       <c r="A190" s="9">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="B190" s="9"/>
       <c r="C190" s="9"/>
       <c r="D190" s="9"/>
       <c r="E190" s="9"/>
-      <c r="F190" s="23"/>
+      <c r="F190" s="20"/>
       <c r="G190" s="9"/>
       <c r="H190" s="9"/>
       <c r="I190" s="9"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:9" ht="15.75" customHeight="1">
       <c r="A191" s="9">
-        <v>181.0</v>
+        <v>181</v>
       </c>
       <c r="B191" s="9"/>
       <c r="C191" s="9"/>
       <c r="D191" s="9"/>
       <c r="E191" s="9"/>
-      <c r="F191" s="23"/>
+      <c r="F191" s="20"/>
       <c r="G191" s="9"/>
       <c r="H191" s="9"/>
       <c r="I191" s="9"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:9" ht="15.75" customHeight="1">
       <c r="A192" s="9">
-        <v>182.0</v>
+        <v>182</v>
       </c>
       <c r="B192" s="9"/>
       <c r="C192" s="9"/>
       <c r="D192" s="9"/>
       <c r="E192" s="9"/>
-      <c r="F192" s="23"/>
+      <c r="F192" s="20"/>
       <c r="G192" s="9"/>
       <c r="H192" s="9"/>
       <c r="I192" s="9"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:9" ht="15.75" customHeight="1">
       <c r="A193" s="9">
-        <v>183.0</v>
+        <v>183</v>
       </c>
       <c r="B193" s="9"/>
       <c r="C193" s="9"/>
       <c r="D193" s="9"/>
       <c r="E193" s="9"/>
-      <c r="F193" s="23"/>
+      <c r="F193" s="20"/>
       <c r="G193" s="9"/>
       <c r="H193" s="9"/>
       <c r="I193" s="9"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:9" ht="15.75" customHeight="1">
       <c r="A194" s="9">
-        <v>184.0</v>
+        <v>184</v>
       </c>
       <c r="B194" s="9"/>
       <c r="C194" s="9"/>
       <c r="D194" s="9"/>
       <c r="E194" s="9"/>
-      <c r="F194" s="23"/>
+      <c r="F194" s="20"/>
       <c r="G194" s="9"/>
       <c r="H194" s="9"/>
       <c r="I194" s="9"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:9" ht="15.75" customHeight="1">
       <c r="A195" s="9">
-        <v>185.0</v>
+        <v>185</v>
       </c>
       <c r="B195" s="9"/>
       <c r="C195" s="9"/>
       <c r="D195" s="9"/>
       <c r="E195" s="9"/>
-      <c r="F195" s="23"/>
+      <c r="F195" s="20"/>
       <c r="G195" s="9"/>
       <c r="H195" s="9"/>
       <c r="I195" s="9"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:9" ht="15.75" customHeight="1">
       <c r="A196" s="9">
-        <v>186.0</v>
+        <v>186</v>
       </c>
       <c r="B196" s="9"/>
       <c r="C196" s="9"/>
       <c r="D196" s="9"/>
       <c r="E196" s="9"/>
-      <c r="F196" s="23"/>
+      <c r="F196" s="20"/>
       <c r="G196" s="9"/>
       <c r="H196" s="9"/>
       <c r="I196" s="9"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:9" ht="15.75" customHeight="1">
       <c r="A197" s="9">
-        <v>187.0</v>
+        <v>187</v>
       </c>
       <c r="B197" s="9"/>
       <c r="C197" s="9"/>
       <c r="D197" s="9"/>
       <c r="E197" s="9"/>
-      <c r="F197" s="23"/>
+      <c r="F197" s="20"/>
       <c r="G197" s="9"/>
       <c r="H197" s="9"/>
       <c r="I197" s="9"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:9" ht="15.75" customHeight="1">
       <c r="A198" s="9">
-        <v>188.0</v>
+        <v>188</v>
       </c>
       <c r="B198" s="9"/>
       <c r="C198" s="9"/>
       <c r="D198" s="9"/>
       <c r="E198" s="9"/>
-      <c r="F198" s="23"/>
+      <c r="F198" s="20"/>
       <c r="G198" s="9"/>
       <c r="H198" s="9"/>
       <c r="I198" s="9"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:9" ht="15.75" customHeight="1">
       <c r="A199" s="9">
-        <v>189.0</v>
+        <v>189</v>
       </c>
       <c r="B199" s="9"/>
       <c r="C199" s="9"/>
       <c r="D199" s="9"/>
       <c r="E199" s="9"/>
-      <c r="F199" s="23"/>
+      <c r="F199" s="20"/>
       <c r="G199" s="9"/>
       <c r="H199" s="9"/>
       <c r="I199" s="9"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:9" ht="15.75" customHeight="1">
       <c r="A200" s="9">
-        <v>190.0</v>
+        <v>190</v>
       </c>
       <c r="B200" s="9"/>
       <c r="C200" s="9"/>
       <c r="D200" s="9"/>
       <c r="E200" s="9"/>
-      <c r="F200" s="23"/>
+      <c r="F200" s="20"/>
       <c r="G200" s="9"/>
       <c r="H200" s="9"/>
       <c r="I200" s="9"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:9" ht="15.75" customHeight="1">
       <c r="A201" s="9">
-        <v>191.0</v>
+        <v>191</v>
       </c>
       <c r="B201" s="9"/>
       <c r="C201" s="9"/>
       <c r="D201" s="9"/>
       <c r="E201" s="9"/>
-      <c r="F201" s="23"/>
+      <c r="F201" s="20"/>
       <c r="G201" s="9"/>
       <c r="H201" s="9"/>
       <c r="I201" s="9"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:9" ht="15.75" customHeight="1">
       <c r="A202" s="9">
-        <v>192.0</v>
+        <v>192</v>
       </c>
       <c r="B202" s="9"/>
       <c r="C202" s="9"/>
       <c r="D202" s="9"/>
       <c r="E202" s="9"/>
-      <c r="F202" s="23"/>
+      <c r="F202" s="20"/>
       <c r="G202" s="9"/>
       <c r="H202" s="9"/>
       <c r="I202" s="9"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:9" ht="15.75" customHeight="1">
       <c r="A203" s="9">
-        <v>193.0</v>
+        <v>193</v>
       </c>
       <c r="B203" s="9"/>
       <c r="C203" s="9"/>
       <c r="D203" s="9"/>
       <c r="E203" s="9"/>
-      <c r="F203" s="23"/>
+      <c r="F203" s="20"/>
       <c r="G203" s="9"/>
       <c r="H203" s="9"/>
       <c r="I203" s="9"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:9" ht="15.75" customHeight="1">
       <c r="A204" s="9">
-        <v>194.0</v>
+        <v>194</v>
       </c>
       <c r="B204" s="9"/>
       <c r="C204" s="9"/>
       <c r="D204" s="9"/>
       <c r="E204" s="9"/>
-      <c r="F204" s="23"/>
+      <c r="F204" s="20"/>
       <c r="G204" s="9"/>
       <c r="H204" s="9"/>
       <c r="I204" s="9"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:9" ht="15.75" customHeight="1">
       <c r="A205" s="9">
-        <v>195.0</v>
+        <v>195</v>
       </c>
       <c r="B205" s="9"/>
       <c r="C205" s="9"/>
       <c r="D205" s="9"/>
       <c r="E205" s="9"/>
-      <c r="F205" s="23"/>
+      <c r="F205" s="20"/>
       <c r="G205" s="9"/>
       <c r="H205" s="9"/>
       <c r="I205" s="9"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:9" ht="15.75" customHeight="1">
       <c r="A206" s="9">
-        <v>196.0</v>
+        <v>196</v>
       </c>
       <c r="B206" s="9"/>
       <c r="C206" s="9"/>
       <c r="D206" s="9"/>
       <c r="E206" s="9"/>
-      <c r="F206" s="23"/>
+      <c r="F206" s="20"/>
       <c r="G206" s="9"/>
       <c r="H206" s="9"/>
       <c r="I206" s="9"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:9" ht="15.75" customHeight="1">
       <c r="A207" s="9">
-        <v>197.0</v>
+        <v>197</v>
       </c>
       <c r="B207" s="9"/>
       <c r="C207" s="9"/>
       <c r="D207" s="9"/>
       <c r="E207" s="9"/>
-      <c r="F207" s="23"/>
+      <c r="F207" s="20"/>
       <c r="G207" s="9"/>
       <c r="H207" s="9"/>
       <c r="I207" s="9"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:9" ht="15.75" customHeight="1">
       <c r="A208" s="9">
-        <v>198.0</v>
+        <v>198</v>
       </c>
       <c r="B208" s="9"/>
       <c r="C208" s="9"/>
       <c r="D208" s="9"/>
       <c r="E208" s="9"/>
-      <c r="F208" s="23"/>
+      <c r="F208" s="20"/>
       <c r="G208" s="9"/>
       <c r="H208" s="9"/>
       <c r="I208" s="9"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:9" ht="15.75" customHeight="1">
       <c r="A209" s="9">
-        <v>199.0</v>
+        <v>199</v>
       </c>
       <c r="B209" s="9"/>
       <c r="C209" s="9"/>
       <c r="D209" s="9"/>
       <c r="E209" s="9"/>
-      <c r="F209" s="23"/>
+      <c r="F209" s="20"/>
       <c r="G209" s="9"/>
       <c r="H209" s="9"/>
       <c r="I209" s="9"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:9" ht="15.75" customHeight="1">
       <c r="A210" s="9">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="B210" s="9"/>
       <c r="C210" s="9"/>
       <c r="D210" s="9"/>
       <c r="E210" s="9"/>
-      <c r="F210" s="23"/>
+      <c r="F210" s="20"/>
       <c r="G210" s="9"/>
       <c r="H210" s="9"/>
       <c r="I210" s="9"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:9" ht="15.75" customHeight="1">
       <c r="B211" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C211" s="9"/>
       <c r="D211" s="9"/>
@@ -10273,19 +10405,19 @@
       <c r="H211" s="9"/>
       <c r="I211" s="9"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="212" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="213" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="214" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="215" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="216" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="217" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="218" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="219" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="220" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="221" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="222" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="223" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="224" spans="1:9" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
@@ -11063,533 +11195,551 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C10:C210">
-      <formula1>'Metadata B1 (Animals)'!$B$10:$B$110</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G10:G210">
-      <formula1>'Dropdown options'!$G$2:$G$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E10:E109 D110:E210">
-      <formula1>'Dropdown options'!$E$2:$E$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F10:F210">
-      <formula1>'Dropdown options'!$F$2:$F$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D10:D109">
-      <formula1>'Metadata A (Sampling)'!$B$10:$B$50</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H10:H210">
-      <formula1>'Dropdown options'!$H$2:$H$8</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
+          <x14:formula1>
+            <xm:f>'Metadata B1 (Animals)'!$B$10:$B$110</xm:f>
+          </x14:formula1>
+          <xm:sqref>C10:C210</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000001000000}">
+          <x14:formula1>
+            <xm:f>'Dropdown options'!$G$2:$G$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>G10:G210</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000002000000}">
+          <x14:formula1>
+            <xm:f>'Dropdown options'!$E$2:$E$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>E10:E109 D110:E210</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000003000000}">
+          <x14:formula1>
+            <xm:f>'Dropdown options'!$F$2:$F$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>F10:F210</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000004000000}">
+          <x14:formula1>
+            <xm:f>'Metadata A (Sampling)'!$B$10:$B$50</xm:f>
+          </x14:formula1>
+          <xm:sqref>D10:D109</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000005000000}">
+          <x14:formula1>
+            <xm:f>'Dropdown options'!$H$2:$H$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>H10:H210</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="8" width="9.38"/>
-    <col customWidth="1" min="9" max="9" width="27.88"/>
-    <col customWidth="1" min="10" max="26" width="9.38"/>
+    <col min="1" max="8" width="9.33203125" customWidth="1"/>
+    <col min="9" max="9" width="27.83203125" customWidth="1"/>
+    <col min="10" max="26" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="C1" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="E1" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="F1" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="G1" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="H1" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="I1" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="J1" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="24" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A2" s="22" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="25" t="s">
+      <c r="B2" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="C2" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="D2" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="E2" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="G2" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A3" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A4" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="12.75" customHeight="1">
+      <c r="B5" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="I3" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="J3" s="25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="I4" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="25" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" ht="12.75" customHeight="1">
-      <c r="B5" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="E5" s="25" t="s">
+      <c r="G5" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="F5" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="G5" s="25" t="s">
+      <c r="H5" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="I5" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="J5" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="J5" s="25" t="s">
+    </row>
+    <row r="6" spans="1:10" ht="12.75" customHeight="1">
+      <c r="B6" s="24" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="6" ht="12.75" customHeight="1">
-      <c r="B6" s="27" t="s">
+      <c r="D6" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="E6" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="F6" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="G6" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="H6" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="I6" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="J6" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="J6" s="25" t="s">
+    </row>
+    <row r="7" spans="1:10" ht="12.75" customHeight="1">
+      <c r="B7" s="24" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="7" ht="12.75" customHeight="1">
-      <c r="B7" s="27" t="s">
+      <c r="D7" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="E7" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="G7" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="H7" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="I7" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="J7" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="J7" s="25" t="s">
+    </row>
+    <row r="8" spans="1:10" ht="12.75" customHeight="1">
+      <c r="D8" s="22" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="8" ht="12.75" customHeight="1">
-      <c r="D8" s="25" t="s">
+      <c r="H8" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="I8" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="I8" s="26" t="s">
+    </row>
+    <row r="9" spans="1:10" ht="12.75" customHeight="1">
+      <c r="D9" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="I9" s="23" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="9" ht="12.75" customHeight="1">
-      <c r="D9" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="I9" s="26" t="s">
+    <row r="10" spans="1:10" ht="12.75" customHeight="1">
+      <c r="I10" s="23" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="10" ht="12.75" customHeight="1">
-      <c r="I10" s="26" t="s">
+    <row r="11" spans="1:10" ht="12.75" customHeight="1">
+      <c r="I11" s="23" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="11" ht="12.75" customHeight="1">
-      <c r="I11" s="26" t="s">
+    <row r="12" spans="1:10" ht="12.75" customHeight="1">
+      <c r="I12" s="23" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="12" ht="12.75" customHeight="1">
-      <c r="I12" s="26" t="s">
+    <row r="13" spans="1:10" ht="12.75" customHeight="1">
+      <c r="I13" s="22" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="13" ht="12.75" customHeight="1">
-      <c r="I13" s="25" t="s">
+    <row r="14" spans="1:10" ht="12.75" customHeight="1">
+      <c r="I14" s="23" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="14" ht="12.75" customHeight="1">
-      <c r="I14" s="26" t="s">
+    <row r="15" spans="1:10" ht="12.75" customHeight="1">
+      <c r="I15" s="23" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="15" ht="12.75" customHeight="1">
-      <c r="I15" s="26" t="s">
+    <row r="16" spans="1:10" ht="12.75" customHeight="1">
+      <c r="I16" s="23" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="16" ht="12.75" customHeight="1">
-      <c r="I16" s="26" t="s">
+    <row r="17" spans="9:9" ht="12.75" customHeight="1">
+      <c r="I17" s="23" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="17" ht="12.75" customHeight="1">
-      <c r="I17" s="26" t="s">
+    <row r="18" spans="9:9" ht="12.75" customHeight="1">
+      <c r="I18" s="23" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="18" ht="12.75" customHeight="1">
-      <c r="I18" s="26" t="s">
+    <row r="19" spans="9:9" ht="12.75" customHeight="1">
+      <c r="I19" s="23" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="19" ht="12.75" customHeight="1">
-      <c r="I19" s="26" t="s">
+    <row r="20" spans="9:9" ht="12.75" customHeight="1">
+      <c r="I20" s="23" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="20" ht="12.75" customHeight="1">
-      <c r="I20" s="26" t="s">
+    <row r="21" spans="9:9" ht="12.75" customHeight="1">
+      <c r="I21" s="22" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="21" ht="12.75" customHeight="1">
-      <c r="I21" s="25" t="s">
+    <row r="22" spans="9:9" ht="12.75" customHeight="1">
+      <c r="I22" s="23" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="22" ht="12.75" customHeight="1">
-      <c r="I22" s="26" t="s">
+    <row r="23" spans="9:9" ht="12.75" customHeight="1">
+      <c r="I23" s="23" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="23" ht="12.75" customHeight="1">
-      <c r="I23" s="26" t="s">
+    <row r="24" spans="9:9" ht="12.75" customHeight="1">
+      <c r="I24" s="23" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="24" ht="12.75" customHeight="1">
-      <c r="I24" s="26" t="s">
+    <row r="25" spans="9:9" ht="12.75" customHeight="1">
+      <c r="I25" s="23" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="25" ht="12.75" customHeight="1">
-      <c r="I25" s="26" t="s">
+    <row r="26" spans="9:9" ht="12.75" customHeight="1">
+      <c r="I26" s="23" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="26" ht="12.75" customHeight="1">
-      <c r="I26" s="26" t="s">
+    <row r="27" spans="9:9" ht="12.75" customHeight="1">
+      <c r="I27" s="23" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="27" ht="12.75" customHeight="1">
-      <c r="I27" s="26" t="s">
+    <row r="28" spans="9:9" ht="12.75" customHeight="1">
+      <c r="I28" s="22" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="28" ht="12.75" customHeight="1">
-      <c r="I28" s="25" t="s">
+    <row r="29" spans="9:9" ht="12.75" customHeight="1">
+      <c r="I29" s="23" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="29" ht="12.75" customHeight="1">
-      <c r="I29" s="26" t="s">
+    <row r="30" spans="9:9" ht="12.75" customHeight="1">
+      <c r="I30" s="23" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="30" ht="12.75" customHeight="1">
-      <c r="I30" s="26" t="s">
+    <row r="31" spans="9:9" ht="12.75" customHeight="1">
+      <c r="I31" s="23" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="31" ht="12.75" customHeight="1">
-      <c r="I31" s="26" t="s">
+    <row r="32" spans="9:9" ht="12.75" customHeight="1">
+      <c r="I32" s="23" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="32" ht="12.75" customHeight="1">
-      <c r="I32" s="26" t="s">
+    <row r="33" spans="9:9" ht="12.75" customHeight="1">
+      <c r="I33" s="23" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="33" ht="12.75" customHeight="1">
-      <c r="I33" s="26" t="s">
+    <row r="34" spans="9:9" ht="12.75" customHeight="1">
+      <c r="I34" s="23" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="34" ht="12.75" customHeight="1">
-      <c r="I34" s="26" t="s">
+    <row r="35" spans="9:9" ht="12.75" customHeight="1">
+      <c r="I35" s="22" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="35" ht="12.75" customHeight="1">
-      <c r="I35" s="25" t="s">
+    <row r="36" spans="9:9" ht="12.75" customHeight="1">
+      <c r="I36" s="23" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="36" ht="12.75" customHeight="1">
-      <c r="I36" s="26" t="s">
+    <row r="37" spans="9:9" ht="12.75" customHeight="1">
+      <c r="I37" s="23" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="37" ht="12.75" customHeight="1">
-      <c r="I37" s="26" t="s">
+    <row r="38" spans="9:9" ht="12.75" customHeight="1">
+      <c r="I38" s="22" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="38" ht="12.75" customHeight="1">
-      <c r="I38" s="25" t="s">
+    <row r="39" spans="9:9" ht="12.75" customHeight="1">
+      <c r="I39" s="23" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="39" ht="12.75" customHeight="1">
-      <c r="I39" s="26" t="s">
+    <row r="40" spans="9:9" ht="12.75" customHeight="1">
+      <c r="I40" s="23" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="40" ht="12.75" customHeight="1">
-      <c r="I40" s="26" t="s">
+    <row r="41" spans="9:9" ht="12.75" customHeight="1">
+      <c r="I41" s="23" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="41" ht="12.75" customHeight="1">
-      <c r="I41" s="26" t="s">
+    <row r="42" spans="9:9" ht="12.75" customHeight="1">
+      <c r="I42" s="22" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="42" ht="12.75" customHeight="1">
-      <c r="I42" s="25" t="s">
+    <row r="43" spans="9:9" ht="12.75" customHeight="1">
+      <c r="I43" s="23" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="43" ht="12.75" customHeight="1">
-      <c r="I43" s="26" t="s">
+    <row r="44" spans="9:9" ht="12.75" customHeight="1">
+      <c r="I44" s="23" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="44" ht="12.75" customHeight="1">
-      <c r="I44" s="26" t="s">
+    <row r="45" spans="9:9" ht="12.75" customHeight="1">
+      <c r="I45" s="23" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="45" ht="12.75" customHeight="1">
-      <c r="I45" s="26" t="s">
+    <row r="46" spans="9:9" ht="12.75" customHeight="1">
+      <c r="I46" s="23" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="46" ht="12.75" customHeight="1">
-      <c r="I46" s="26" t="s">
+    <row r="47" spans="9:9" ht="12.75" customHeight="1">
+      <c r="I47" s="23" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="47" ht="12.75" customHeight="1">
-      <c r="I47" s="26" t="s">
+    <row r="48" spans="9:9" ht="12.75" customHeight="1">
+      <c r="I48" s="23" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="48" ht="12.75" customHeight="1">
-      <c r="I48" s="26" t="s">
+    <row r="49" spans="9:9" ht="12.75" customHeight="1">
+      <c r="I49" s="22" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="49" ht="12.75" customHeight="1">
-      <c r="I49" s="25" t="s">
+    <row r="50" spans="9:9" ht="12.75" customHeight="1">
+      <c r="I50" s="22" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="50" ht="12.75" customHeight="1">
-      <c r="I50" s="25" t="s">
+    <row r="51" spans="9:9" ht="12.75" customHeight="1">
+      <c r="I51" s="23" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="51" ht="12.75" customHeight="1">
-      <c r="I51" s="26" t="s">
+    <row r="52" spans="9:9" ht="12.75" customHeight="1">
+      <c r="I52" s="22" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="52" ht="12.75" customHeight="1">
-      <c r="I52" s="25" t="s">
+    <row r="53" spans="9:9" ht="12.75" customHeight="1">
+      <c r="I53" s="23" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="53" ht="12.75" customHeight="1">
-      <c r="I53" s="26" t="s">
+    <row r="54" spans="9:9" ht="12.75" customHeight="1">
+      <c r="I54" s="23" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="54" ht="12.75" customHeight="1">
-      <c r="I54" s="26" t="s">
+    <row r="55" spans="9:9" ht="12.75" customHeight="1">
+      <c r="I55" s="23" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="55" ht="12.75" customHeight="1">
-      <c r="I55" s="26" t="s">
+    <row r="56" spans="9:9" ht="12.75" customHeight="1">
+      <c r="I56" s="23" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="56" ht="12.75" customHeight="1">
-      <c r="I56" s="26" t="s">
+    <row r="57" spans="9:9" ht="12.75" customHeight="1">
+      <c r="I57" s="23" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="57" ht="12.75" customHeight="1">
-      <c r="I57" s="26" t="s">
+    <row r="58" spans="9:9" ht="12.75" customHeight="1">
+      <c r="I58" s="23" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="58" ht="12.75" customHeight="1">
-      <c r="I58" s="26" t="s">
+    <row r="59" spans="9:9" ht="12.75" customHeight="1">
+      <c r="I59" s="23" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="59" ht="12.75" customHeight="1">
-      <c r="I59" s="26" t="s">
+    <row r="60" spans="9:9" ht="12.75" customHeight="1">
+      <c r="I60" s="23" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="60" ht="12.75" customHeight="1">
-      <c r="I60" s="26" t="s">
+    <row r="61" spans="9:9" ht="12.75" customHeight="1">
+      <c r="I61" s="23" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="61" ht="12.75" customHeight="1">
-      <c r="I61" s="26" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="62" ht="12.75" customHeight="1"/>
-    <row r="63" ht="12.75" customHeight="1"/>
-    <row r="64" ht="12.75" customHeight="1"/>
+    <row r="62" spans="9:9" ht="12.75" customHeight="1"/>
+    <row r="63" spans="9:9" ht="12.75" customHeight="1"/>
+    <row r="64" spans="9:9" ht="12.75" customHeight="1"/>
     <row r="65" ht="12.75" customHeight="1"/>
     <row r="66" ht="12.75" customHeight="1"/>
     <row r="67" ht="12.75" customHeight="1"/>
@@ -12527,9 +12677,7 @@
     <row r="999" ht="12.75" customHeight="1"/>
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>